--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -5,17 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeducacao-my.sharepoint.com/personal/kaique_yuto_animaeducacao_com_br/Documents/Projetos/Novo Modelo Acadêmico/databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE02DB7E-0E8D-467F-B5D7-6748E5A6DB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5083CF-4FC3-4776-A661-A27BA36527FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet5!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="47">
   <si>
     <t>UC</t>
   </si>
@@ -150,6 +154,36 @@
   <si>
     <t>Presencial 70.30</t>
   </si>
+  <si>
+    <t>SEMI PRESENCIAL ATUAL</t>
+  </si>
+  <si>
+    <t>Tipo de Junção</t>
+  </si>
+  <si>
+    <t>Valor Hoje</t>
+  </si>
+  <si>
+    <t>R$                21,00</t>
+  </si>
+  <si>
+    <t>R$                55,08</t>
+  </si>
+  <si>
+    <t>Professor em Jornada</t>
+  </si>
+  <si>
+    <t>3.000 (1,68) Encargos</t>
+  </si>
+  <si>
+    <t>Marca / Polo</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Semi Presencial Atual</t>
+  </si>
 </sst>
 </file>
 
@@ -158,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,22 +207,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -196,33 +235,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -246,16 +285,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}" name="Table1" displayName="Table1" ref="A1:F151" totalsRowShown="0">
-  <autoFilter ref="A1:F151" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}">
-    <filterColumn colId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}" name="Table1" displayName="Table1" ref="A1:F169" totalsRowShown="0">
+  <autoFilter ref="A1:F169" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}">
+    <filterColumn colId="0">
       <filters>
-        <filter val="Máximo de Alunos por Turma"/>
+        <filter val="Semi Presencial 40.20 Bacharelado"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:F120">
-    <sortCondition ref="E1:E151"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A110:F154">
+    <sortCondition ref="B1:B169"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6A60AEFD-F1D8-4A8A-AD63-1AB0B11CC907}" name="Modelo"/>
@@ -532,23 +571,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="38.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
     <col min="5" max="5" width="22.77734375" customWidth="1"/>
     <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -568,58 +610,58 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>23</v>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>23</v>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>120</v>
+        <v>19</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1">
-        <v>55.08</v>
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -628,18 +670,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -648,19 +690,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7">
-        <f>20/7</f>
-        <v>2.8571428571428572</v>
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>550</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -669,18 +710,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>99999</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -689,18 +730,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>1000</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="1">
+        <v>55.08</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -709,18 +750,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>550</v>
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>21</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -729,18 +770,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>99999</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <v>55.08</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -749,52 +790,52 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1">
-        <v>55.08</v>
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>8</v>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>550</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>8</v>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -809,18 +850,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>7</v>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -829,18 +870,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>7</v>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -849,12 +890,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>7</v>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -869,59 +910,58 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="7">
-        <f>20/7</f>
-        <v>2.8571428571428572</v>
+      <c r="D17">
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18">
-        <v>550</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>21</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -930,98 +970,98 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="1">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21">
-        <v>70</v>
+        <v>99999</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="1">
-        <v>21</v>
+        <v>55.08</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>99999</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -1030,12 +1070,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -1044,77 +1084,77 @@
         <v>55.08</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>99999</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>0.5</v>
+        <v>550</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="1">
-        <v>55.08</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
@@ -1130,17 +1170,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="2">
         <v>0.5</v>
       </c>
       <c r="E30" t="s">
@@ -1150,11 +1190,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
@@ -1170,11 +1210,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
@@ -1190,11 +1230,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
@@ -1210,11 +1250,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
@@ -1230,11 +1270,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
@@ -1250,11 +1290,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
@@ -1270,11 +1310,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
@@ -1290,11 +1330,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C38" t="s">
@@ -1310,11 +1350,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C39" t="s">
@@ -1330,11 +1370,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C40" t="s">
@@ -1350,11 +1390,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C41" t="s">
@@ -1370,11 +1410,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
@@ -1390,11 +1430,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C43" t="s">
@@ -1410,17 +1450,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="4">
         <v>20</v>
       </c>
       <c r="E44" t="s">
@@ -1430,17 +1470,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="4">
         <v>120</v>
       </c>
       <c r="E45" t="s">
@@ -1450,11 +1490,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C46" t="s">
@@ -1470,11 +1510,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1">
       <c r="A47" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C47" t="s">
@@ -1490,72 +1530,71 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1">
       <c r="A48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="7">
-        <f>20/7</f>
-        <v>2.8571428571428572</v>
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>1000</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50">
-        <v>99999</v>
-      </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C51" t="s">
@@ -1571,71 +1610,71 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>7</v>
+      <c r="B52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52">
-        <v>550</v>
+        <v>18</v>
+      </c>
+      <c r="D52" s="1">
+        <v>21</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="1">
-        <v>55.08</v>
+        <v>19</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="1">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>99999</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C55" t="s">
@@ -1651,18 +1690,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
       </c>
-      <c r="D56">
-        <v>5</v>
+      <c r="D56" s="3">
+        <v>10.37</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -1671,17 +1710,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>29</v>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>99999</v>
       </c>
       <c r="E57" t="s">
@@ -1691,11 +1730,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
@@ -1711,72 +1750,72 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>120</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60">
-        <v>120</v>
-      </c>
-      <c r="E60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="1">
-        <v>21</v>
-      </c>
-      <c r="E61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="C62" t="s">
         <v>19</v>
@@ -1791,51 +1830,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>30</v>
+      <c r="B63" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63">
+        <v>18</v>
+      </c>
+      <c r="D63" s="1">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64">
         <v>99999</v>
       </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="1">
-        <v>21</v>
-      </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1">
       <c r="A65" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C65" t="s">
@@ -1851,11 +1890,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C66" t="s">
@@ -1871,11 +1910,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C67" t="s">
@@ -1891,378 +1930,378 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68">
+        <v>70</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68">
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="1">
+        <v>21</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73">
         <v>2.5</v>
       </c>
-      <c r="E68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="8" t="s">
+    <row r="74" spans="1:6" hidden="1">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C69" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69">
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="1">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" hidden="1">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75">
+        <v>99999</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1">
+      <c r="A76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76">
         <v>120</v>
       </c>
-      <c r="E69" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="8" t="s">
+    <row r="77" spans="1:6" hidden="1">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="1">
-        <v>21</v>
-      </c>
-      <c r="E70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71">
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77">
         <v>3</v>
       </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72">
-        <v>1000</v>
-      </c>
-      <c r="E72" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>70</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="1">
         <v>55.08</v>
       </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74">
-        <v>20</v>
-      </c>
-      <c r="E74" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75">
-        <v>70</v>
-      </c>
-      <c r="E75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="1">
-        <v>55.08</v>
-      </c>
-      <c r="E76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="7">
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78">
-        <v>550</v>
-      </c>
-      <c r="E78" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="1">
-        <v>21</v>
-      </c>
       <c r="E79" t="s">
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" t="s">
         <v>24</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>28</v>
+      <c r="B80" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" t="s">
         <v>24</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>28</v>
+      <c r="B81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81">
-        <v>120</v>
+        <v>18</v>
+      </c>
+      <c r="D81" s="1">
+        <v>55.08</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1">
       <c r="A82" t="s">
         <v>24</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>28</v>
+      <c r="B82" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="1">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D82">
+        <v>0.5</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1">
       <c r="A83" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
       </c>
-      <c r="D83">
-        <v>3</v>
+      <c r="D83" s="5">
+        <v>2</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84" t="s">
         <v>24</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>23</v>
+      <c r="B84" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D84">
-        <v>20</v>
+        <v>550</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85">
-        <v>99999</v>
+        <v>18</v>
+      </c>
+      <c r="D85" s="1">
+        <v>21</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>23</v>
+      <c r="B86" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D86">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
@@ -2271,18 +2310,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1">
       <c r="A87" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="1">
-        <v>55.08</v>
+        <v>20</v>
+      </c>
+      <c r="D87">
+        <v>99999</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
@@ -2291,12 +2330,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1">
       <c r="A88" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>23</v>
+      <c r="B88" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
@@ -2311,52 +2350,52 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1">
       <c r="A89" t="s">
         <v>24</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>28</v>
+      <c r="B89" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C89" t="s">
         <v>19</v>
       </c>
-      <c r="D89">
-        <v>3</v>
+      <c r="D89" s="4">
+        <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1">
       <c r="A90" t="s">
         <v>24</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>28</v>
+      <c r="B90" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C90" t="s">
         <v>20</v>
       </c>
-      <c r="D90">
-        <v>99999</v>
+      <c r="D90" s="4">
+        <v>120</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F90" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1">
       <c r="A91" t="s">
         <v>24</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>28</v>
+      <c r="B91" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
@@ -2365,24 +2404,24 @@
         <v>55.08</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1">
       <c r="A92" t="s">
         <v>24</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>33</v>
+      <c r="B92" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>19</v>
       </c>
-      <c r="D92">
-        <v>3</v>
+      <c r="D92" s="3">
+        <v>10.37</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
@@ -2391,17 +2430,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93" t="s">
         <v>24</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>33</v>
+      <c r="B93" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>20</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>99999</v>
       </c>
       <c r="E93" t="s">
@@ -2411,12 +2450,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1">
       <c r="A94" t="s">
         <v>24</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>33</v>
+      <c r="B94" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
@@ -2431,52 +2470,52 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95" t="s">
-        <v>25</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C95" t="s">
         <v>19</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="4">
         <v>20</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1">
       <c r="A96" t="s">
-        <v>25</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C96" t="s">
         <v>20</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="4">
         <v>120</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1">
       <c r="A97" t="s">
-        <v>25</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
@@ -2485,58 +2524,58 @@
         <v>55.08</v>
       </c>
       <c r="E97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1">
       <c r="A98" t="s">
         <v>24</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>34</v>
+      <c r="B98" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C98" t="s">
         <v>19</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98">
         <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1">
       <c r="A99" t="s">
         <v>24</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>34</v>
+      <c r="B99" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C99" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99">
         <v>120</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1">
       <c r="A100" t="s">
         <v>24</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>34</v>
+      <c r="B100" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
@@ -2545,85 +2584,85 @@
         <v>55.08</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1">
       <c r="A101" t="s">
-        <v>25</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C101" t="s">
         <v>19</v>
       </c>
       <c r="D101">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" hidden="1">
       <c r="A102" t="s">
-        <v>25</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D102">
+        <v>120</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1">
+      <c r="A103" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="1">
+        <v>21</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" hidden="1">
+      <c r="A104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104">
         <v>3</v>
       </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>25</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103">
-        <v>1000</v>
-      </c>
-      <c r="E103" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>25</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104">
-        <v>5</v>
-      </c>
       <c r="E104" t="s">
         <v>9</v>
       </c>
@@ -2631,18 +2670,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1">
       <c r="A105" t="s">
-        <v>25</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C105" t="s">
         <v>20</v>
       </c>
       <c r="D105">
-        <v>550</v>
+        <v>99999</v>
       </c>
       <c r="E105" t="s">
         <v>9</v>
@@ -2651,12 +2690,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1">
       <c r="A106" t="s">
-        <v>25</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
@@ -2671,198 +2710,198 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1">
       <c r="A107" t="s">
-        <v>25</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1">
+      <c r="A108" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108">
         <v>99999</v>
       </c>
-      <c r="E107" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>25</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" t="s">
-        <v>18</v>
-      </c>
-      <c r="D108" s="1">
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" hidden="1">
+      <c r="A109" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="1">
         <v>55.08</v>
       </c>
-      <c r="E108" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>25</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C109" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>25</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>26</v>
+      <c r="B110" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
-      </c>
-      <c r="D110">
-        <v>70</v>
+        <v>19</v>
+      </c>
+      <c r="D110" s="5">
+        <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>25</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>26</v>
+      <c r="B111" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="1">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D111">
+        <v>550</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>25</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>18</v>
       </c>
       <c r="D112" s="1">
-        <v>55.08</v>
+        <v>21</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>31</v>
+      <c r="B113" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>19</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>25</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>31</v>
+      <c r="B114" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D114">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>25</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>31</v>
+      <c r="B115" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
-      </c>
-      <c r="D115" s="1">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D115">
+        <v>1000</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>21</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>99999</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -2871,152 +2910,152 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>25</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>32</v>
+      <c r="B117" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="D117" s="1">
+        <v>55.08</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>25</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>32</v>
+      <c r="B118" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
-      </c>
-      <c r="D118">
-        <v>70</v>
+        <v>18</v>
+      </c>
+      <c r="D118" s="1">
+        <v>55.08</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>32</v>
+      <c r="B119" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
-      </c>
-      <c r="D119" s="1">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D119" s="4">
+        <v>20</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>21</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C120" t="s">
         <v>20</v>
       </c>
-      <c r="D120">
-        <v>70</v>
+      <c r="D120" s="4">
+        <v>120</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>26</v>
+      <c r="B121" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="D121" s="1">
+        <v>55.08</v>
       </c>
       <c r="E121" t="s">
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>25</v>
       </c>
-      <c r="B122" s="8" t="s">
-        <v>26</v>
+      <c r="B122" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122">
-        <v>120</v>
+        <v>19</v>
+      </c>
+      <c r="D122" s="3">
+        <v>10.37</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>25</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>26</v>
+      <c r="B123" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123" s="1">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D123" s="3">
+        <v>99999</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>21</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
@@ -3031,32 +3070,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>25</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>31</v>
+      <c r="B125" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
       </c>
       <c r="D125">
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>25</v>
       </c>
-      <c r="B126" s="8" t="s">
-        <v>31</v>
+      <c r="B126" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C126" t="s">
         <v>20</v>
@@ -3065,104 +3104,104 @@
         <v>120</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>25</v>
       </c>
-      <c r="B127" s="8" t="s">
-        <v>31</v>
+      <c r="B127" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C127" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="1">
-        <v>21</v>
+        <v>55.08</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>24</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C128" t="s">
         <v>19</v>
       </c>
-      <c r="D128" s="9">
-        <v>20</v>
+      <c r="D128">
+        <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>25</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D129">
-        <v>2.5</v>
+        <v>70</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>25</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130">
-        <v>120</v>
+        <v>18</v>
+      </c>
+      <c r="D130" s="1">
+        <v>21</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>25</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
-      </c>
-      <c r="D131" s="1">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D131">
+        <v>2.5</v>
       </c>
       <c r="E131" t="s">
         <v>10</v>
@@ -3171,58 +3210,58 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>24</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C132" t="s">
         <v>20</v>
       </c>
-      <c r="D132" s="9">
+      <c r="D132">
         <v>120</v>
       </c>
       <c r="E132" t="s">
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>26</v>
+      <c r="B133" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C133" t="s">
-        <v>19</v>
-      </c>
-      <c r="D133">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="D133" s="1">
+        <v>21</v>
       </c>
       <c r="E133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>25</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>26</v>
+      <c r="B134" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D134">
-        <v>99999</v>
+        <v>3</v>
       </c>
       <c r="E134" t="s">
         <v>9</v>
@@ -3231,18 +3270,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>25</v>
       </c>
-      <c r="B135" s="8" t="s">
-        <v>26</v>
+      <c r="B135" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C135" t="s">
-        <v>18</v>
-      </c>
-      <c r="D135" s="1">
-        <v>55.08</v>
+        <v>20</v>
+      </c>
+      <c r="D135">
+        <v>99999</v>
       </c>
       <c r="E135" t="s">
         <v>9</v>
@@ -3251,12 +3290,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>24</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C136" t="s">
         <v>18</v>
@@ -3265,138 +3304,138 @@
         <v>55.08</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F136" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>25</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>31</v>
+      <c r="B137" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C137" t="s">
         <v>19</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E137" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>25</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>31</v>
+      <c r="B138" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C138" t="s">
         <v>20</v>
       </c>
       <c r="D138">
-        <v>99999</v>
+        <v>70</v>
       </c>
       <c r="E138" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>25</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>31</v>
+      <c r="B139" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C139" t="s">
         <v>18</v>
       </c>
       <c r="D139" s="1">
-        <v>55.08</v>
+        <v>21</v>
       </c>
       <c r="E139" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>25</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>35</v>
+      <c r="B140" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C140" t="s">
         <v>19</v>
       </c>
-      <c r="D140" s="9">
-        <v>20</v>
+      <c r="D140">
+        <v>4</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>25</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>35</v>
+      <c r="B141" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C141" t="s">
         <v>20</v>
       </c>
-      <c r="D141" s="9">
+      <c r="D141">
         <v>120</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>25</v>
       </c>
-      <c r="B142" s="8" t="s">
-        <v>35</v>
+      <c r="B142" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C142" t="s">
         <v>18</v>
       </c>
       <c r="D142" s="1">
-        <v>55.08</v>
+        <v>21</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>22</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C143" t="s">
         <v>19</v>
@@ -3408,167 +3447,527 @@
         <v>9</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>22</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C144" t="s">
         <v>20</v>
       </c>
       <c r="D144">
-        <v>550</v>
+        <v>99999</v>
       </c>
       <c r="E144" t="s">
         <v>9</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>22</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C145" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="1">
-        <v>21</v>
+        <v>55.08</v>
       </c>
       <c r="E145" t="s">
         <v>9</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>25</v>
       </c>
-      <c r="B146" s="8" t="s">
-        <v>32</v>
+      <c r="B146" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C146" t="s">
         <v>19</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E146" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>25</v>
       </c>
-      <c r="B147" s="8" t="s">
-        <v>32</v>
+      <c r="B147" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C147" t="s">
         <v>20</v>
       </c>
       <c r="D147">
-        <v>99999</v>
+        <v>70</v>
       </c>
       <c r="E147" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="8" t="s">
-        <v>32</v>
+      <c r="B148" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C148" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="1">
+        <v>21</v>
+      </c>
+      <c r="E148" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>25</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149">
+        <v>2.5</v>
+      </c>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C150" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150">
+        <v>120</v>
+      </c>
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>25</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C151" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" s="1">
+        <v>21</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>25</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C152" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>25</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C153" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153">
+        <v>99999</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>25</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="1">
         <v>55.08</v>
       </c>
-      <c r="E148" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="E154" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" hidden="1">
+      <c r="A155" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="3">
+        <v>2</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" hidden="1">
+      <c r="A156" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" s="3">
+        <v>55.08</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" hidden="1">
+      <c r="A157" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="3">
+        <v>120</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" hidden="1">
+      <c r="A158" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="3">
+        <v>99999</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" hidden="1">
+      <c r="A159" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="3">
+        <v>10.37</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" hidden="1">
+      <c r="A160" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" s="3">
+        <v>55.08</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" hidden="1">
+      <c r="A161" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" hidden="1">
+      <c r="A162" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" s="3">
+        <v>55.08</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" hidden="1">
+      <c r="A163" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="3">
+        <v>120</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" hidden="1">
+      <c r="A164" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" hidden="1">
+      <c r="A165" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="3">
+        <v>55.08</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" hidden="1">
+      <c r="A166" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166" s="3">
+        <v>120</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" hidden="1">
+      <c r="A167" t="s">
         <v>24</v>
       </c>
-      <c r="B149" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" t="s">
-        <v>19</v>
-      </c>
-      <c r="D149">
-        <v>3</v>
-      </c>
-      <c r="E149" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="B167" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="5">
+        <v>2</v>
+      </c>
+      <c r="E167" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" hidden="1">
+      <c r="A168" t="s">
         <v>24</v>
       </c>
-      <c r="B150" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" t="s">
-        <v>20</v>
-      </c>
-      <c r="D150">
-        <v>99999</v>
-      </c>
-      <c r="E150" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="B168" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168">
+        <v>550</v>
+      </c>
+      <c r="E168" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" hidden="1">
+      <c r="A169" t="s">
         <v>24</v>
       </c>
-      <c r="B151" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" t="s">
-        <v>18</v>
-      </c>
-      <c r="D151" s="1">
-        <v>55.08</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>17</v>
+      <c r="B169" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C169" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" s="1">
+        <v>21</v>
+      </c>
+      <c r="E169" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3581,436 +3980,1014 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823705FC-4231-4DF0-A381-0721E5D9A38D}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239B2245-1C13-4F5F-800F-E30D8301F5E8}">
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="B8" sqref="B8:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="5">
-        <v>21</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27.6">
+      <c r="A2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27.6">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9">
+        <v>550</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27.6">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27.6">
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27.6">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9">
+        <v>99999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>120</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27.6">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="9">
+        <v>55.08</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27.6">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27.6">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27.6">
+      <c r="A10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27.6">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="6">
+    <row r="12" spans="1:8" ht="27.6">
+      <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9">
+        <v>120</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="27.6">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="27.6">
+      <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="27.6">
+      <c r="A15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9">
+        <v>99999</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="27.6">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="27.6">
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9">
+        <v>4</v>
+      </c>
+      <c r="F17" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="27.6">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9">
+        <v>120</v>
+      </c>
+      <c r="F18" s="9">
+        <v>120</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="27.6">
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="9">
         <v>55.08</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="G19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="27.6">
+      <c r="A20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="27.6">
+      <c r="A21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9">
         <v>70</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
+    <row r="22" spans="1:8" ht="27.6">
+      <c r="A22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="9">
+        <v>55.08</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="27.6">
+      <c r="A23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9">
+        <v>3</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="27.6">
+      <c r="A24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9">
         <v>99999</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3">
-        <v>550</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="27.6">
+      <c r="A25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="27.6">
+      <c r="A26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="9">
+        <v>20</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="27.6">
+      <c r="A27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9">
+        <v>120</v>
+      </c>
+      <c r="F27" s="9">
+        <v>120</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="27.6">
+      <c r="A28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="27.6">
+      <c r="A29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9">
+        <v>3</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="27.6">
+      <c r="A30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9">
+        <v>70</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2">
-        <v>99999</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6">
-        <v>55.08</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5">
-        <v>55.08</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="6">
-        <v>55.08</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="5">
-        <v>21</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2">
-        <v>99999</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3850</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="4">
-        <v>20</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>14</v>
+    <row r="31" spans="1:8" ht="27.6">
+      <c r="A31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356CC600-CF0E-4228-9196-6C8090DFD56C}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="6" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27.6">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.6">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9">
+        <v>55.08</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.6">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9">
+        <v>120</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27.6">
+      <c r="A5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9">
+        <v>99999</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27.6">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.6">
+      <c r="A7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27.6">
+      <c r="A8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27.6">
+      <c r="A9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9">
+        <v>55.08</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27.6">
+      <c r="A10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9">
+        <v>120</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27.6">
+      <c r="A11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27.6">
+      <c r="A12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9">
+        <v>55.08</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27.6">
+      <c r="A13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9">
+        <v>120</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{356CC600-CF0E-4228-9196-6C8090DFD56C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeducacao-my.sharepoint.com/personal/kaique_yuto_animaeducacao_com_br/Documents/Projetos/Novo Modelo Acadêmico/databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5083CF-4FC3-4776-A661-A27BA36527FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BF5083CF-4FC3-4776-A661-A27BA36527FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDAF1041-C74B-4206-9F7C-F0AB93D111FC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,7 +289,7 @@
   <autoFilter ref="A1:F169" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Semi Presencial 40.20 Bacharelado"/>
+        <filter val="Presencial 70.30"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -574,7 +574,7 @@
   <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1150,7 +1150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" hidden="1">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" hidden="1">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" hidden="1">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" hidden="1">
       <c r="A117" t="s">
         <v>25</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" hidden="1">
       <c r="A118" t="s">
         <v>25</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" t="s">
         <v>25</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120" t="s">
         <v>25</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" t="s">
         <v>25</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122" t="s">
         <v>25</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" hidden="1">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" hidden="1">
       <c r="A124" t="s">
         <v>25</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" hidden="1">
       <c r="A125" t="s">
         <v>25</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" hidden="1">
       <c r="A126" t="s">
         <v>25</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" hidden="1">
       <c r="A127" t="s">
         <v>25</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" hidden="1">
       <c r="A128" t="s">
         <v>25</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" hidden="1">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1">
       <c r="A130" t="s">
         <v>25</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" hidden="1">
       <c r="A131" t="s">
         <v>25</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" hidden="1">
       <c r="A132" t="s">
         <v>25</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" hidden="1">
       <c r="A133" t="s">
         <v>25</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1">
       <c r="A134" t="s">
         <v>25</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" hidden="1">
       <c r="A135" t="s">
         <v>25</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" hidden="1">
       <c r="A136" t="s">
         <v>25</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" hidden="1">
       <c r="A137" t="s">
         <v>25</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" hidden="1">
       <c r="A138" t="s">
         <v>25</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" hidden="1">
       <c r="A139" t="s">
         <v>25</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" hidden="1">
       <c r="A140" t="s">
         <v>25</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" hidden="1">
       <c r="A141" t="s">
         <v>25</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" hidden="1">
       <c r="A142" t="s">
         <v>25</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" hidden="1">
       <c r="A143" t="s">
         <v>25</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" hidden="1">
       <c r="A144" t="s">
         <v>25</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145" t="s">
         <v>25</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146" t="s">
         <v>25</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147" t="s">
         <v>25</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" hidden="1">
       <c r="A148" t="s">
         <v>25</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" hidden="1">
       <c r="A149" t="s">
         <v>25</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" hidden="1">
       <c r="A150" t="s">
         <v>25</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" hidden="1">
       <c r="A151" t="s">
         <v>25</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" hidden="1">
       <c r="A152" t="s">
         <v>25</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" hidden="1">
       <c r="A153" t="s">
         <v>25</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" hidden="1">
       <c r="A154" t="s">
         <v>25</v>
       </c>

--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeducacao-my.sharepoint.com/personal/kaique_yuto_animaeducacao_com_br/Documents/Projetos/Novo Modelo Acadêmico/databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BF5083CF-4FC3-4776-A661-A27BA36527FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDAF1041-C74B-4206-9F7C-F0AB93D111FC}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{BF5083CF-4FC3-4776-A661-A27BA36527FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CF261F4-D3AB-4236-81CA-3CA132AEC1E1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,10 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="47">
-  <si>
-    <t>UC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="47">
   <si>
     <t>Tipo de UC</t>
   </si>
@@ -184,6 +181,9 @@
   <si>
     <t>Semi Presencial Atual</t>
   </si>
+  <si>
+    <t>UC (6-10)</t>
+  </si>
 </sst>
 </file>
 
@@ -285,16 +285,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}" name="Table1" displayName="Table1" ref="A1:F169" totalsRowShown="0">
-  <autoFilter ref="A1:F169" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}" name="Table1" displayName="Table1" ref="A1:F172" totalsRowShown="0">
+  <autoFilter ref="A1:F172" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Presencial 70.30"/>
+        <filter val="Semi Presencial 30.20 Bacharelado"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="UC (1-3)"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="CH Semanal"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A110:F154">
-    <sortCondition ref="B1:B169"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A107:F151">
+    <sortCondition ref="B1:B166"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6A60AEFD-F1D8-4A8A-AD63-1AB0B11CC907}" name="Modelo"/>
@@ -571,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -592,913 +602,913 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>1000</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" hidden="1">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>550</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" hidden="1">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>99999</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" hidden="1">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>55.08</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>55.08</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>550</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <v>55.08</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" hidden="1">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1">
         <v>55.08</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" hidden="1">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" hidden="1">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" hidden="1">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" hidden="1">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>99999</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" hidden="1">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1">
         <v>55.08</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" hidden="1">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" hidden="1">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24">
         <v>99999</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" hidden="1">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1">
         <v>55.08</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27">
         <v>550</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1">
         <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2">
         <v>0.5</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31">
         <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>1000</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="1">
         <v>55.08</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1">
         <v>55.08</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35">
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <v>450</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1">
         <v>55.08</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>19</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40">
-        <v>70</v>
+        <v>17</v>
+      </c>
+      <c r="D40" s="1">
+        <v>55.08</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41">
-        <v>70</v>
+        <v>18</v>
+      </c>
+      <c r="D41" s="4">
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="1">
-        <v>55.08</v>
+        <v>19</v>
+      </c>
+      <c r="D42" s="4">
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="1">
         <v>55.08</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="4">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>0.5</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="4">
-        <v>120</v>
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>1000</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46" s="1">
         <v>55.08</v>
@@ -1507,24 +1517,24 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47">
-        <v>0.5</v>
+        <v>18</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -1532,19 +1542,19 @@
     </row>
     <row r="48" spans="1:6" hidden="1">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -1552,19 +1562,19 @@
     </row>
     <row r="49" spans="1:6" hidden="1">
       <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="1">
         <v>21</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="1">
-        <v>55.08</v>
-      </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -1572,259 +1582,259 @@
     </row>
     <row r="50" spans="1:6" hidden="1">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="5">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:6" hidden="1">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51">
-        <v>550</v>
+        <v>99999</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:6" hidden="1">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52" s="1">
-        <v>21</v>
+        <v>55.08</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:6" hidden="1">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="D53" s="3">
+        <v>10.37</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:6" hidden="1">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54">
+        <v>19</v>
+      </c>
+      <c r="D54" s="3">
         <v>99999</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:6" hidden="1">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55" s="1">
         <v>55.08</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:6" hidden="1">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="3">
-        <v>10.37</v>
+      <c r="D56">
+        <v>120</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="3">
-        <v>99999</v>
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58" s="1">
         <v>55.08</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1">
       <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="1">
         <v>21</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60">
-        <v>20</v>
-      </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="1">
-        <v>55.08</v>
+        <v>19</v>
+      </c>
+      <c r="D61">
+        <v>99999</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
@@ -1832,19 +1842,19 @@
     </row>
     <row r="63" spans="1:6" hidden="1">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="1">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D63">
+        <v>120</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -1852,59 +1862,59 @@
     </row>
     <row r="64" spans="1:6" hidden="1">
       <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="1">
         <v>21</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64">
-        <v>99999</v>
-      </c>
       <c r="E64" t="s">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D66">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
@@ -1912,19 +1922,19 @@
     </row>
     <row r="67" spans="1:6" hidden="1">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67" s="1">
-        <v>21</v>
+        <v>55.08</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
@@ -1932,47 +1942,47 @@
     </row>
     <row r="68" spans="1:6" hidden="1">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D68">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="D69" s="1">
+        <v>21</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>29</v>
@@ -1980,31 +1990,31 @@
       <c r="C70" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="1">
-        <v>55.08</v>
+      <c r="D70">
+        <v>2.5</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1">
       <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="1">
         <v>21</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
@@ -2012,59 +2022,59 @@
     </row>
     <row r="72" spans="1:6" hidden="1">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="1">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>99999</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
       </c>
       <c r="D73">
-        <v>2.5</v>
+        <v>120</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="1">
-        <v>21</v>
+      <c r="D74">
+        <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
@@ -2072,39 +2082,39 @@
     </row>
     <row r="75" spans="1:6" hidden="1">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75">
-        <v>99999</v>
+        <v>70</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76">
-        <v>120</v>
+        <v>17</v>
+      </c>
+      <c r="D76" s="1">
+        <v>55.08</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
@@ -2112,79 +2122,79 @@
     </row>
     <row r="77" spans="1:6" hidden="1">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>19</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:6" hidden="1">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78">
-        <v>70</v>
+        <v>17</v>
+      </c>
+      <c r="D78" s="1">
+        <v>55.08</v>
       </c>
       <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
         <v>12</v>
-      </c>
-      <c r="F78" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:6" hidden="1">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="1">
-        <v>55.08</v>
+      <c r="D79">
+        <v>0.5</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" hidden="1">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80">
-        <v>1000</v>
+        <v>18</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
@@ -2192,19 +2202,19 @@
     </row>
     <row r="81" spans="1:6" hidden="1">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="1">
-        <v>55.08</v>
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>550</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F81" t="s">
         <v>13</v>
@@ -2212,19 +2222,19 @@
     </row>
     <row r="82" spans="1:6" hidden="1">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82">
-        <v>0.5</v>
+        <v>17</v>
+      </c>
+      <c r="D82" s="1">
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
@@ -2232,113 +2242,113 @@
     </row>
     <row r="83" spans="1:6" hidden="1">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="5">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:6" hidden="1">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D84">
-        <v>550</v>
+        <v>99999</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:6" hidden="1">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D85" s="1">
-        <v>21</v>
+        <v>55.08</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:6" hidden="1">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="D86" s="4">
+        <v>20</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:6" hidden="1">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87">
-        <v>99999</v>
+        <v>19</v>
+      </c>
+      <c r="D87" s="4">
+        <v>120</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:6" hidden="1">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D88" s="1">
         <v>55.08</v>
@@ -2347,118 +2357,118 @@
         <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:6" hidden="1">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="4">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D89" s="3">
+        <v>10.37</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:6" hidden="1">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="4">
-        <v>120</v>
+        <v>19</v>
+      </c>
+      <c r="D90" s="3">
+        <v>99999</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:6" hidden="1">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D91" s="1">
         <v>55.08</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:6" hidden="1">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="3">
-        <v>10.37</v>
+        <v>18</v>
+      </c>
+      <c r="D92" s="4">
+        <v>20</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:6" hidden="1">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" s="3">
-        <v>99999</v>
+        <v>19</v>
+      </c>
+      <c r="D93" s="4">
+        <v>120</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:6" hidden="1">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D94" s="1">
         <v>55.08</v>
@@ -2467,98 +2477,98 @@
         <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:6" hidden="1">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="4">
+        <v>18</v>
+      </c>
+      <c r="D95">
         <v>20</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:6" hidden="1">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" s="4">
+        <v>19</v>
+      </c>
+      <c r="D96">
         <v>120</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:6" hidden="1">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D97" s="1">
         <v>55.08</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:6" hidden="1">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:6" hidden="1">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D99">
         <v>120</v>
@@ -2567,44 +2577,44 @@
         <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:6" hidden="1">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D100" s="1">
-        <v>55.08</v>
+        <v>21</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:6" hidden="1">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -2612,19 +2622,19 @@
     </row>
     <row r="102" spans="1:6" hidden="1">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D102">
-        <v>120</v>
+        <v>99999</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
@@ -2632,19 +2642,19 @@
     </row>
     <row r="103" spans="1:6" hidden="1">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D103" s="1">
-        <v>21</v>
+        <v>55.08</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -2652,62 +2662,62 @@
     </row>
     <row r="104" spans="1:6" hidden="1">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D104">
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:6" hidden="1">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D105">
         <v>99999</v>
       </c>
       <c r="E105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:6" hidden="1">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D106" s="1">
         <v>55.08</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:6" hidden="1">
@@ -2715,19 +2725,19 @@
         <v>24</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="D107" s="5">
+        <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:6" hidden="1">
@@ -2735,19 +2745,19 @@
         <v>24</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108">
-        <v>99999</v>
+        <v>550</v>
       </c>
       <c r="E108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:6" hidden="1">
@@ -2755,190 +2765,190 @@
         <v>24</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D109" s="1">
-        <v>55.08</v>
+        <v>21</v>
       </c>
       <c r="E109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:6" hidden="1">
       <c r="A110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="5">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="D110">
+        <v>0.5</v>
       </c>
       <c r="E110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:6" hidden="1">
       <c r="A111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D111">
-        <v>550</v>
+        <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:6" hidden="1">
       <c r="A112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
-      </c>
-      <c r="D112" s="1">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D112">
+        <v>1000</v>
       </c>
       <c r="E112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:6" hidden="1">
       <c r="A113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>19</v>
       </c>
       <c r="D113">
-        <v>0.5</v>
+        <v>99999</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:6" hidden="1">
       <c r="A114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="D114" s="1">
+        <v>55.08</v>
       </c>
       <c r="E114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:6" hidden="1">
       <c r="A115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
-      </c>
-      <c r="D115">
-        <v>1000</v>
+        <v>17</v>
+      </c>
+      <c r="D115" s="1">
+        <v>55.08</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:6" hidden="1">
       <c r="A116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116">
-        <v>99999</v>
+        <v>18</v>
+      </c>
+      <c r="D116" s="4">
+        <v>20</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:6" hidden="1">
       <c r="A117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
-      </c>
-      <c r="D117" s="1">
-        <v>55.08</v>
+        <v>19</v>
+      </c>
+      <c r="D117" s="4">
+        <v>120</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:6" hidden="1">
       <c r="A118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D118" s="1">
         <v>55.08</v>
@@ -2947,204 +2957,204 @@
         <v>9</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:6" hidden="1">
       <c r="A119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="4">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D119" s="3">
+        <v>10.37</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:6" hidden="1">
       <c r="A120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
-      </c>
-      <c r="D120" s="4">
-        <v>120</v>
+        <v>19</v>
+      </c>
+      <c r="D120" s="3">
+        <v>99999</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:6" hidden="1">
       <c r="A121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D121" s="1">
         <v>55.08</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:6" hidden="1">
       <c r="A122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="3">
-        <v>10.37</v>
+        <v>18</v>
+      </c>
+      <c r="D122">
+        <v>20</v>
       </c>
       <c r="E122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:6" hidden="1">
       <c r="A123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
-      </c>
-      <c r="D123" s="3">
-        <v>99999</v>
+        <v>19</v>
+      </c>
+      <c r="D123">
+        <v>120</v>
       </c>
       <c r="E123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:6" hidden="1">
       <c r="A124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D124" s="1">
         <v>55.08</v>
       </c>
       <c r="E124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:6" hidden="1">
       <c r="A125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D125">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:6" hidden="1">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D126">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E126" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:6" hidden="1">
       <c r="A127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D127" s="1">
-        <v>55.08</v>
+        <v>21</v>
       </c>
       <c r="E127" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:6" hidden="1">
       <c r="A128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F128" t="s">
         <v>15</v>
@@ -3152,19 +3162,19 @@
     </row>
     <row r="129" spans="1:6" hidden="1">
       <c r="A129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D129">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F129" t="s">
         <v>15</v>
@@ -3172,19 +3182,19 @@
     </row>
     <row r="130" spans="1:6" hidden="1">
       <c r="A130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D130" s="1">
         <v>21</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -3192,19 +3202,19 @@
     </row>
     <row r="131" spans="1:6" hidden="1">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D131">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F131" t="s">
         <v>16</v>
@@ -3212,19 +3222,19 @@
     </row>
     <row r="132" spans="1:6" hidden="1">
       <c r="A132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D132">
-        <v>120</v>
+        <v>99999</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
@@ -3232,19 +3242,19 @@
     </row>
     <row r="133" spans="1:6" hidden="1">
       <c r="A133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D133" s="1">
-        <v>21</v>
+        <v>55.08</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
@@ -3252,79 +3262,79 @@
     </row>
     <row r="134" spans="1:6" hidden="1">
       <c r="A134" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:6" hidden="1">
       <c r="A135" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D135">
-        <v>99999</v>
+        <v>70</v>
       </c>
       <c r="E135" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:6" hidden="1">
       <c r="A136" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D136" s="1">
-        <v>55.08</v>
+        <v>21</v>
       </c>
       <c r="E136" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:6" hidden="1">
       <c r="A137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F137" t="s">
         <v>15</v>
@@ -3332,19 +3342,19 @@
     </row>
     <row r="138" spans="1:6" hidden="1">
       <c r="A138" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D138">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F138" t="s">
         <v>15</v>
@@ -3352,19 +3362,19 @@
     </row>
     <row r="139" spans="1:6" hidden="1">
       <c r="A139" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D139" s="1">
         <v>21</v>
       </c>
       <c r="E139" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F139" t="s">
         <v>15</v>
@@ -3372,19 +3382,19 @@
     </row>
     <row r="140" spans="1:6" hidden="1">
       <c r="A140" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F140" t="s">
         <v>16</v>
@@ -3392,19 +3402,19 @@
     </row>
     <row r="141" spans="1:6" hidden="1">
       <c r="A141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D141">
-        <v>120</v>
+        <v>99999</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F141" t="s">
         <v>16</v>
@@ -3412,19 +3422,19 @@
     </row>
     <row r="142" spans="1:6" hidden="1">
       <c r="A142" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D142" s="1">
-        <v>21</v>
+        <v>55.08</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F142" t="s">
         <v>16</v>
@@ -3432,79 +3442,79 @@
     </row>
     <row r="143" spans="1:6" hidden="1">
       <c r="A143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E143" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:6" hidden="1">
       <c r="A144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D144">
-        <v>99999</v>
+        <v>70</v>
       </c>
       <c r="E144" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:6" hidden="1">
       <c r="A145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D145" s="1">
-        <v>55.08</v>
+        <v>21</v>
       </c>
       <c r="E145" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:6" hidden="1">
       <c r="A146" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E146" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F146" t="s">
         <v>15</v>
@@ -3512,19 +3522,19 @@
     </row>
     <row r="147" spans="1:6" hidden="1">
       <c r="A147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D147">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E147" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F147" t="s">
         <v>15</v>
@@ -3532,19 +3542,19 @@
     </row>
     <row r="148" spans="1:6" hidden="1">
       <c r="A148" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D148" s="1">
         <v>21</v>
       </c>
       <c r="E148" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F148" t="s">
         <v>15</v>
@@ -3552,19 +3562,19 @@
     </row>
     <row r="149" spans="1:6" hidden="1">
       <c r="A149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D149">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F149" t="s">
         <v>16</v>
@@ -3572,19 +3582,19 @@
     </row>
     <row r="150" spans="1:6" hidden="1">
       <c r="A150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D150">
-        <v>120</v>
+        <v>99999</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F150" t="s">
         <v>16</v>
@@ -3592,382 +3602,442 @@
     </row>
     <row r="151" spans="1:6" hidden="1">
       <c r="A151" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D151" s="1">
-        <v>21</v>
+        <v>55.08</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F151" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:6" hidden="1">
-      <c r="A152" t="s">
-        <v>25</v>
+      <c r="A152" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C152" t="s">
-        <v>19</v>
-      </c>
-      <c r="D152">
-        <v>3</v>
-      </c>
-      <c r="E152" t="s">
-        <v>9</v>
-      </c>
-      <c r="F152" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:6" hidden="1">
-      <c r="A153" t="s">
-        <v>25</v>
+      <c r="A153" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C153" t="s">
-        <v>20</v>
-      </c>
-      <c r="D153">
-        <v>99999</v>
-      </c>
-      <c r="E153" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="3">
+        <v>55.08</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:6" hidden="1">
-      <c r="A154" t="s">
-        <v>25</v>
+      <c r="A154" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C154" t="s">
-        <v>18</v>
-      </c>
-      <c r="D154" s="1">
-        <v>55.08</v>
-      </c>
-      <c r="E154" t="s">
-        <v>9</v>
-      </c>
-      <c r="F154" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="3">
+        <v>120</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:6" hidden="1">
       <c r="A155" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D155" s="3">
-        <v>2</v>
+        <v>99999</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:6" hidden="1">
       <c r="A156" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D156" s="3">
-        <v>55.08</v>
+        <v>10.37</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:6" hidden="1">
       <c r="A157" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D157" s="3">
-        <v>120</v>
+        <v>55.08</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:6" hidden="1">
       <c r="A158" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D158" s="3">
-        <v>99999</v>
+        <v>6.5</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:6" hidden="1">
       <c r="A159" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D159" s="3">
-        <v>10.37</v>
+        <v>55.08</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:6" hidden="1">
       <c r="A160" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D160" s="3">
-        <v>55.08</v>
+        <v>120</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:6" hidden="1">
       <c r="A161" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D161" s="3">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:6" hidden="1">
       <c r="A162" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D162" s="3">
         <v>55.08</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:6" hidden="1">
       <c r="A163" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D163" s="3">
         <v>120</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:6" hidden="1">
-      <c r="A164" s="3" t="s">
-        <v>46</v>
+      <c r="A164" t="s">
+        <v>23</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D164" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="C164" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" s="5">
+        <v>2</v>
+      </c>
+      <c r="E164" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:6" hidden="1">
-      <c r="A165" s="3" t="s">
-        <v>46</v>
+      <c r="A165" t="s">
+        <v>23</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D165" s="3">
-        <v>55.08</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="C165" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165">
+        <v>550</v>
+      </c>
+      <c r="E165" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:6" hidden="1">
-      <c r="A166" s="3" t="s">
-        <v>46</v>
+      <c r="A166" t="s">
+        <v>23</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D166" s="3">
-        <v>120</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="1">
+        <v>21</v>
+      </c>
+      <c r="E166" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:6" hidden="1">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" s="5">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
       </c>
       <c r="E167" t="s">
         <v>9</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:6" hidden="1">
       <c r="A168" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D168">
-        <v>550</v>
+        <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:6" hidden="1">
       <c r="A169" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C169" t="s">
-        <v>18</v>
-      </c>
-      <c r="D169" s="1">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D169">
+        <v>120</v>
       </c>
       <c r="E169" t="s">
         <v>9</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" hidden="1">
+      <c r="A170" t="s">
+        <v>35</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C170" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170">
+        <v>120</v>
+      </c>
+      <c r="E170" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" hidden="1">
+      <c r="A171" t="s">
+        <v>35</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="E171" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" hidden="1">
+      <c r="A172" t="s">
+        <v>35</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="E172" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3998,39 +4068,39 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="27.6">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="9">
@@ -4038,21 +4108,21 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27.6">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="9">
@@ -4060,43 +4130,43 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.6">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27.6">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="9">
@@ -4106,21 +4176,21 @@
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27.6">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="9">
@@ -4130,115 +4200,115 @@
         <v>120</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27.6">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="9">
         <v>55.08</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27.6">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="27.6">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27.6">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="27.6">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="9">
@@ -4246,21 +4316,21 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27.6">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="9">
@@ -4268,43 +4338,43 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="27.6">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="27.6">
       <c r="A14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="9">
@@ -4312,21 +4382,21 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="27.6">
       <c r="A15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="9">
@@ -4334,43 +4404,43 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="27.6">
       <c r="A16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="27.6">
       <c r="A17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="9">
@@ -4380,21 +4450,21 @@
         <v>6.5</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="27.6">
       <c r="A18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="9">
@@ -4404,45 +4474,45 @@
         <v>120</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="27.6">
       <c r="A19" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="9">
         <v>55.08</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27.6">
       <c r="A20" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="9">
@@ -4452,21 +4522,21 @@
         <v>0.5</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="27.6">
       <c r="A21" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="9">
@@ -4474,45 +4544,45 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.6">
       <c r="A22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="9">
         <v>55.08</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="27.6">
       <c r="A23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="9">
@@ -4520,21 +4590,21 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="27.6">
       <c r="A24" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="9">
@@ -4542,43 +4612,43 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.6">
       <c r="A25" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="27.6">
       <c r="A26" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="9">
@@ -4586,21 +4656,21 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="27.6">
       <c r="A27" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="9">
@@ -4610,43 +4680,43 @@
         <v>120</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="27.6">
       <c r="A28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="27.6">
       <c r="A29" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="9">
@@ -4654,21 +4724,21 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="27.6">
       <c r="A30" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="9">
@@ -4676,32 +4746,32 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="27.6">
       <c r="A31" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4726,260 +4796,260 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27.6">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="9">
         <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.6">
       <c r="A3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="9">
         <v>55.08</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.6">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="9">
         <v>120</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27.6">
       <c r="A5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="9">
         <v>99999</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.6">
       <c r="A6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.6">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27.6">
       <c r="A8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="9">
         <v>6.5</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.6">
       <c r="A9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="9">
         <v>55.08</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.6">
       <c r="A10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="9">
         <v>120</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27.6">
       <c r="A11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="9">
         <v>0.5</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27.6">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="9">
         <v>55.08</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27.6">
       <c r="A13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="9">
         <v>120</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeducacao-my.sharepoint.com/personal/kaique_yuto_animaeducacao_com_br/Documents/Projetos/Novo Modelo Acadêmico/databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{BF5083CF-4FC3-4776-A661-A27BA36527FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CF261F4-D3AB-4236-81CA-3CA132AEC1E1}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{BF5083CF-4FC3-4776-A661-A27BA36527FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74759CD4-C03C-40E0-808F-D1D53E0307F4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="49">
   <si>
     <t>Tipo de UC</t>
   </si>
@@ -184,6 +184,12 @@
   <si>
     <t>UC (6-10)</t>
   </si>
+  <si>
+    <t>EAD Atual</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
 </sst>
 </file>
 
@@ -285,26 +291,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}" name="Table1" displayName="Table1" ref="A1:F172" totalsRowShown="0">
-  <autoFilter ref="A1:F172" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Semi Presencial 30.20 Bacharelado"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="UC (1-3)"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="CH Semanal"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A107:F151">
-    <sortCondition ref="B1:B166"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}" name="Table1" displayName="Table1" ref="A1:F181" totalsRowShown="0">
+  <autoFilter ref="A1:F181" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F172">
+    <sortCondition ref="A1:A172"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6A60AEFD-F1D8-4A8A-AD63-1AB0B11CC907}" name="Modelo"/>
@@ -581,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -620,7 +610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -640,7 +630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -660,7 +650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -680,7 +670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -700,7 +690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -720,7 +710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -740,7 +730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -760,7 +750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -780,7 +770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -800,7 +790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -820,7 +810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -840,7 +830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -860,7 +850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -880,7 +870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -900,7 +890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -920,7 +910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -940,7 +930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -960,7 +950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -980,7 +970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1000,7 +990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1020,7 +1010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1040,7 +1030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1060,7 +1050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1080,7 +1070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1100,7 +1090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1120,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1140,7 +1130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1160,7 +1150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1180,7 +1170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1200,7 +1190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1220,7 +1210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1240,7 +1230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1260,7 +1250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1280,7 +1270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1300,7 +1290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1320,7 +1310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1340,7 +1330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1360,7 +1350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1380,7 +1370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -1400,7 +1390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1420,7 +1410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -1440,7 +1430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -1460,167 +1450,167 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
       </c>
       <c r="D44">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>120</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>120</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>0.5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="1">
-        <v>55.08</v>
-      </c>
-      <c r="E46" t="s">
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51">
+        <v>1000</v>
+      </c>
+      <c r="E51" t="s">
         <v>10</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1">
-      <c r="A47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="5">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1">
-      <c r="A48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48">
-        <v>550</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" hidden="1">
-      <c r="A49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="1">
-        <v>21</v>
-      </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1">
-      <c r="A50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1">
-      <c r="A51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51">
-        <v>99999</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -1634,105 +1624,105 @@
         <v>55.08</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" hidden="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>20</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="3">
-        <v>10.37</v>
+      <c r="D53" s="5">
+        <v>2</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>20</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54">
+        <v>550</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="1">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57">
         <v>99999</v>
       </c>
-      <c r="E54" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1">
-      <c r="A55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="1">
-        <v>55.08</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1">
-      <c r="A56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56">
-        <v>120</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" hidden="1">
-      <c r="A57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57">
-        <v>20</v>
-      </c>
       <c r="E57" t="s">
         <v>8</v>
       </c>
@@ -1740,12 +1730,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
@@ -1765,53 +1755,53 @@
         <v>20</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
       </c>
-      <c r="D59">
-        <v>2</v>
+      <c r="D59" s="3">
+        <v>10.37</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="1">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D60" s="3">
+        <v>99999</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61">
-        <v>99999</v>
+        <v>17</v>
+      </c>
+      <c r="D61" s="1">
+        <v>55.08</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -1825,62 +1815,62 @@
         <v>20</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="1">
-        <v>21</v>
+        <v>55.08</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -1888,10 +1878,10 @@
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -1908,19 +1898,19 @@
         <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="D66" s="1">
+        <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -1928,10 +1918,10 @@
         <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="1">
-        <v>55.08</v>
+        <v>19</v>
+      </c>
+      <c r="D67">
+        <v>99999</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
@@ -1940,58 +1930,58 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>20</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="1">
+        <v>19</v>
+      </c>
+      <c r="D69">
+        <v>120</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="1">
         <v>21</v>
-      </c>
-      <c r="E69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" hidden="1">
-      <c r="A70" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70">
-        <v>2.5</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -2000,38 +1990,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>20</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="1">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D71">
+        <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>20</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72">
-        <v>99999</v>
+        <v>3</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
@@ -2040,27 +2030,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>20</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73">
-        <v>120</v>
+        <v>17</v>
+      </c>
+      <c r="D73" s="1">
+        <v>55.08</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -2071,16 +2061,16 @@
         <v>18</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -2088,10 +2078,10 @@
         <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75">
-        <v>70</v>
+        <v>17</v>
+      </c>
+      <c r="D75" s="1">
+        <v>21</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -2100,7 +2090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -2108,139 +2098,139 @@
         <v>29</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="1">
+        <v>18</v>
+      </c>
+      <c r="D76">
+        <v>2.5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="1">
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78">
+        <v>99999</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79">
+        <v>120</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>70</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="1">
         <v>55.08</v>
       </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" hidden="1">
-      <c r="A77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77">
-        <v>1000</v>
-      </c>
-      <c r="E77" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" hidden="1">
-      <c r="A78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="1">
-        <v>55.08</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" hidden="1">
-      <c r="A79" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79">
-        <v>0.5</v>
-      </c>
-      <c r="E79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" hidden="1">
-      <c r="A80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="5">
-        <v>2</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" hidden="1">
-      <c r="A81" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81">
-        <v>550</v>
-      </c>
-      <c r="E81" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" hidden="1">
-      <c r="A82" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="1">
-        <v>21</v>
-      </c>
       <c r="E82" t="s">
         <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -2248,19 +2238,19 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" hidden="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -2268,19 +2258,19 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84">
-        <v>99999</v>
+        <v>17</v>
+      </c>
+      <c r="D84" s="1">
+        <v>55.08</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" hidden="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -2288,90 +2278,90 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="1">
-        <v>55.08</v>
+        <v>18</v>
+      </c>
+      <c r="D85">
+        <v>0.5</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" hidden="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>23</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="4">
-        <v>20</v>
+      <c r="D86" s="5">
+        <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>23</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="4">
-        <v>120</v>
+      <c r="D87">
+        <v>550</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>23</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="1">
-        <v>55.08</v>
+        <v>21</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>23</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="3">
-        <v>10.37</v>
+      <c r="D89">
+        <v>3</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -2380,17 +2370,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>23</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90">
         <v>99999</v>
       </c>
       <c r="E90" t="s">
@@ -2400,12 +2390,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>23</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
@@ -2420,12 +2410,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>23</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
@@ -2440,12 +2430,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>23</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C93" t="s">
         <v>19</v>
@@ -2460,12 +2450,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>23</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C94" t="s">
         <v>17</v>
@@ -2480,18 +2470,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>23</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
       </c>
-      <c r="D95">
-        <v>20</v>
+      <c r="D95" s="3">
+        <v>10.37</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
@@ -2500,18 +2490,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>23</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>19</v>
       </c>
-      <c r="D96">
-        <v>120</v>
+      <c r="D96" s="3">
+        <v>99999</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
@@ -2520,12 +2510,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>23</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
@@ -2540,78 +2530,78 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>23</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
       </c>
-      <c r="D98">
-        <v>4</v>
+      <c r="D98" s="4">
+        <v>20</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>23</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
         <v>19</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="4">
         <v>120</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>23</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="1">
-        <v>21</v>
+        <v>55.08</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>23</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C101" t="s">
         <v>18</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -2620,18 +2610,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>23</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
         <v>19</v>
       </c>
       <c r="D102">
-        <v>99999</v>
+        <v>120</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
@@ -2640,12 +2630,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>23</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
@@ -2660,338 +2650,338 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>23</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
         <v>18</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>23</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
         <v>19</v>
       </c>
       <c r="D105">
-        <v>99999</v>
+        <v>120</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>23</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="1">
+        <v>21</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108">
+        <v>99999</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C106" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" s="1">
+      <c r="C110" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111">
+        <v>99999</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="1">
         <v>55.08</v>
       </c>
-      <c r="E106" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" hidden="1">
-      <c r="A107" t="s">
-        <v>24</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
-        <v>18</v>
-      </c>
-      <c r="D107" s="5">
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="5">
         <v>2</v>
       </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1">
-      <c r="A108" t="s">
-        <v>24</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108">
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114">
         <v>550</v>
       </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1">
-      <c r="A109" t="s">
-        <v>24</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" s="1">
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="1">
         <v>21</v>
       </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1">
-      <c r="A110" t="s">
-        <v>24</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
-        <v>18</v>
-      </c>
-      <c r="D110">
-        <v>0.5</v>
-      </c>
-      <c r="E110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" hidden="1">
-      <c r="A111" t="s">
-        <v>24</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111">
-        <v>3</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" hidden="1">
-      <c r="A112" t="s">
-        <v>24</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112">
-        <v>1000</v>
-      </c>
-      <c r="E112" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" hidden="1">
-      <c r="A113" t="s">
-        <v>24</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
-        <v>19</v>
-      </c>
-      <c r="D113">
-        <v>99999</v>
-      </c>
-      <c r="E113" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" hidden="1">
-      <c r="A114" t="s">
-        <v>24</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" s="1">
-        <v>55.08</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" hidden="1">
-      <c r="A115" t="s">
-        <v>24</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" s="1">
-        <v>55.08</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" hidden="1">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>24</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="4">
-        <v>20</v>
+      <c r="D116" s="5">
+        <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>24</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="4">
-        <v>120</v>
+      <c r="D117">
+        <v>550</v>
       </c>
       <c r="E117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>24</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="1">
-        <v>55.08</v>
+        <v>21</v>
       </c>
       <c r="E118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>24</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>18</v>
       </c>
-      <c r="D119" s="3">
-        <v>10.37</v>
+      <c r="D119">
+        <v>0.5</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" hidden="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>24</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="3">
-        <v>99999</v>
+        <v>18</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
       </c>
       <c r="E120" t="s">
         <v>8</v>
@@ -3000,38 +2990,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>24</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" s="1">
-        <v>55.08</v>
+        <v>19</v>
+      </c>
+      <c r="D121">
+        <v>1000</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" hidden="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>24</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D122">
-        <v>20</v>
+        <v>99999</v>
       </c>
       <c r="E122" t="s">
         <v>8</v>
@@ -3040,32 +3030,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>24</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123">
-        <v>120</v>
+        <v>17</v>
+      </c>
+      <c r="D123" s="1">
+        <v>55.08</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" hidden="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>24</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>17</v>
@@ -3080,138 +3070,138 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>24</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C125" t="s">
         <v>18</v>
       </c>
-      <c r="D125">
-        <v>2</v>
+      <c r="D125" s="4">
+        <v>20</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>24</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C126" t="s">
         <v>19</v>
       </c>
-      <c r="D126">
-        <v>70</v>
+      <c r="D126" s="4">
+        <v>120</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>24</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C127" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="1">
-        <v>21</v>
+        <v>55.08</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>24</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>18</v>
       </c>
-      <c r="D128">
-        <v>2.5</v>
+      <c r="D128" s="3">
+        <v>10.37</v>
       </c>
       <c r="E128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>24</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>19</v>
       </c>
-      <c r="D129">
-        <v>120</v>
+      <c r="D129" s="3">
+        <v>99999</v>
       </c>
       <c r="E129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>24</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="1">
-        <v>21</v>
+        <v>55.08</v>
       </c>
       <c r="E130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>24</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C131" t="s">
         <v>18</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E131" t="s">
         <v>8</v>
@@ -3220,18 +3210,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>24</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C132" t="s">
         <v>19</v>
       </c>
       <c r="D132">
-        <v>99999</v>
+        <v>120</v>
       </c>
       <c r="E132" t="s">
         <v>8</v>
@@ -3240,12 +3230,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>24</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C133" t="s">
         <v>17</v>
@@ -3260,12 +3250,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>24</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C134" t="s">
         <v>18</v>
@@ -3280,12 +3270,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>24</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C135" t="s">
         <v>19</v>
@@ -3300,12 +3290,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>24</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C136" t="s">
         <v>17</v>
@@ -3320,18 +3310,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>24</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C137" t="s">
         <v>18</v>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E137" t="s">
         <v>9</v>
@@ -3340,12 +3330,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>24</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C138" t="s">
         <v>19</v>
@@ -3360,12 +3350,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>24</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C139" t="s">
         <v>17</v>
@@ -3380,12 +3370,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>24</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C140" t="s">
         <v>18</v>
@@ -3400,12 +3390,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>24</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C141" t="s">
         <v>19</v>
@@ -3420,12 +3410,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>24</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C142" t="s">
         <v>17</v>
@@ -3440,18 +3430,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>24</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C143" t="s">
         <v>18</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E143" t="s">
         <v>11</v>
@@ -3460,12 +3450,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>24</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C144" t="s">
         <v>19</v>
@@ -3480,12 +3470,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>24</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C145" t="s">
         <v>17</v>
@@ -3500,18 +3490,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>24</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C146" t="s">
         <v>18</v>
       </c>
       <c r="D146">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E146" t="s">
         <v>9</v>
@@ -3520,12 +3510,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>24</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C147" t="s">
         <v>19</v>
@@ -3540,12 +3530,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>24</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C148" t="s">
         <v>17</v>
@@ -3560,12 +3550,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>24</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C149" t="s">
         <v>18</v>
@@ -3580,12 +3570,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>24</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C150" t="s">
         <v>19</v>
@@ -3600,12 +3590,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>24</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C151" t="s">
         <v>17</v>
@@ -3620,212 +3610,212 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1">
-      <c r="A152" s="3" t="s">
-        <v>45</v>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>24</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D152" s="3">
-        <v>2</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" hidden="1">
-      <c r="A153" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="C152" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152">
+        <v>4</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>24</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D153" s="3">
+        <v>30</v>
+      </c>
+      <c r="C153" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153">
+        <v>70</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>24</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="1">
+        <v>21</v>
+      </c>
+      <c r="E154" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>24</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155">
+        <v>2.5</v>
+      </c>
+      <c r="E155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156">
+        <v>120</v>
+      </c>
+      <c r="E156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>24</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="1">
+        <v>21</v>
+      </c>
+      <c r="E157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>24</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>24</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159">
+        <v>99999</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>24</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C160" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="1">
         <v>55.08</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" hidden="1">
-      <c r="A154" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D154" s="3">
-        <v>120</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" hidden="1">
-      <c r="A155" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" s="3">
-        <v>99999</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" hidden="1">
-      <c r="A156" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D156" s="3">
-        <v>10.37</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" hidden="1">
-      <c r="A157" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" s="3">
-        <v>55.08</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" hidden="1">
-      <c r="A158" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D158" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" hidden="1">
-      <c r="A159" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" s="3">
-        <v>55.08</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" hidden="1">
-      <c r="A160" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" s="3">
-        <v>120</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" hidden="1">
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D161" s="3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>17</v>
@@ -3834,18 +3824,18 @@
         <v>55.08</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>19</v>
@@ -3854,189 +3844,369 @@
         <v>120</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F163" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="3">
+        <v>99999</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="3">
+        <v>10.37</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="3">
+        <v>55.08</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1">
-      <c r="A164" t="s">
-        <v>23</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C164" t="s">
-        <v>18</v>
-      </c>
-      <c r="D164" s="5">
+    <row r="168" spans="1:6">
+      <c r="A168" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="3">
+        <v>55.08</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="3">
+        <v>120</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="3">
+        <v>55.08</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="3">
+        <v>120</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" s="3">
         <v>2</v>
       </c>
-      <c r="E164" t="s">
-        <v>8</v>
-      </c>
-      <c r="F164" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" hidden="1">
-      <c r="A165" t="s">
-        <v>23</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C165" t="s">
-        <v>19</v>
-      </c>
-      <c r="D165">
+      <c r="E173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="3">
+        <v>55.08</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="3">
+        <v>120</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="3">
+        <v>99999</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" s="3">
+        <v>10.37</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="3">
+        <v>55.08</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C179" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C180" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180">
         <v>550</v>
       </c>
-      <c r="E165" t="s">
-        <v>8</v>
-      </c>
-      <c r="F165" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" hidden="1">
-      <c r="A166" t="s">
-        <v>23</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C166" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" s="1">
-        <v>21</v>
-      </c>
-      <c r="E166" t="s">
-        <v>8</v>
-      </c>
-      <c r="F166" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" hidden="1">
-      <c r="A167" t="s">
-        <v>35</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C167" t="s">
-        <v>18</v>
-      </c>
-      <c r="D167">
-        <v>3</v>
-      </c>
-      <c r="E167" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" hidden="1">
-      <c r="A168" t="s">
-        <v>35</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C168" t="s">
-        <v>18</v>
-      </c>
-      <c r="D168">
-        <v>3</v>
-      </c>
-      <c r="E168" t="s">
-        <v>10</v>
-      </c>
-      <c r="F168" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" hidden="1">
-      <c r="A169" t="s">
-        <v>35</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C169" t="s">
-        <v>19</v>
-      </c>
-      <c r="D169">
-        <v>120</v>
-      </c>
-      <c r="E169" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" hidden="1">
-      <c r="A170" t="s">
-        <v>35</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C170" t="s">
-        <v>19</v>
-      </c>
-      <c r="D170">
-        <v>120</v>
-      </c>
-      <c r="E170" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" hidden="1">
-      <c r="A171" t="s">
-        <v>35</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C171" t="s">
-        <v>17</v>
-      </c>
-      <c r="D171" s="1">
+      <c r="E180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" s="1">
         <v>55.08</v>
       </c>
-      <c r="E171" t="s">
-        <v>9</v>
-      </c>
-      <c r="F171" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" hidden="1">
-      <c r="A172" t="s">
-        <v>35</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C172" t="s">
-        <v>17</v>
-      </c>
-      <c r="D172" s="1">
-        <v>55.08</v>
-      </c>
-      <c r="E172" t="s">
-        <v>10</v>
-      </c>
-      <c r="F172" t="s">
+      <c r="E181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeducacao-my.sharepoint.com/personal/kaique_yuto_animaeducacao_com_br/Documents/Projetos/Novo Modelo Acadêmico/databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{BF5083CF-4FC3-4776-A661-A27BA36527FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74759CD4-C03C-40E0-808F-D1D53E0307F4}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{BF5083CF-4FC3-4776-A661-A27BA36527FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE0E547D-7D0A-4A3F-AC94-0C01B8D1D942}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="50">
   <si>
     <t>Tipo de UC</t>
   </si>
@@ -190,6 +190,9 @@
   <si>
     <t>UC</t>
   </si>
+  <si>
+    <t>Presencial Atual</t>
+  </si>
 </sst>
 </file>
 
@@ -291,8 +294,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}" name="Table1" displayName="Table1" ref="A1:F181" totalsRowShown="0">
-  <autoFilter ref="A1:F181" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}" name="Table1" displayName="Table1" ref="A1:F202" totalsRowShown="0">
+  <autoFilter ref="A1:F202" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F172">
     <sortCondition ref="A1:A172"/>
   </sortState>
@@ -571,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4207,6 +4210,426 @@
         <v>8</v>
       </c>
       <c r="F181" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>49</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>49</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E183" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>49</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184">
+        <v>80</v>
+      </c>
+      <c r="E184" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>49</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185">
+        <v>1000</v>
+      </c>
+      <c r="E185" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>49</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="E186" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>49</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="E187" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>49</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188">
+        <v>20</v>
+      </c>
+      <c r="E188" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>49</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189">
+        <v>450</v>
+      </c>
+      <c r="E189" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>49</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="E190" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>49</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C191" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191">
+        <v>3</v>
+      </c>
+      <c r="E191" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>49</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C192" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192">
+        <v>120</v>
+      </c>
+      <c r="E192" t="s">
+        <v>9</v>
+      </c>
+      <c r="F192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>49</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="E193" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>49</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C194" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" s="4">
+        <v>20</v>
+      </c>
+      <c r="E194" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>49</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" s="4">
+        <v>120</v>
+      </c>
+      <c r="E195" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>49</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C196" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="E196" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>49</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C197" t="s">
+        <v>18</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+      <c r="E197" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>49</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C198" t="s">
+        <v>18</v>
+      </c>
+      <c r="D198">
+        <v>3</v>
+      </c>
+      <c r="E198" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>49</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C199" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199">
+        <v>120</v>
+      </c>
+      <c r="E199" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>49</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C200" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200">
+        <v>120</v>
+      </c>
+      <c r="E200" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>49</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="E201" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>49</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C202" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202" t="s">
         <v>16</v>
       </c>
     </row>

--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeducacao-my.sharepoint.com/personal/kaique_yuto_animaeducacao_com_br/Documents/Projetos/Novo Modelo Acadêmico/databases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{BF5083CF-4FC3-4776-A661-A27BA36527FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE0E547D-7D0A-4A3F-AC94-0C01B8D1D942}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6461A6AB-C243-4CD9-8863-DD5B7ABA0EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,7 +295,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}" name="Table1" displayName="Table1" ref="A1:F202" totalsRowShown="0">
-  <autoFilter ref="A1:F202" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}"/>
+  <autoFilter ref="A1:F202" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Presencial 70.30"/>
+        <filter val="Presencial Atual"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F172">
     <sortCondition ref="A1:A172"/>
   </sortState>
@@ -576,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -613,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -633,7 +640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -653,7 +660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -673,7 +680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -693,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -713,7 +720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -733,7 +740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -753,7 +760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -773,7 +780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -793,7 +800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -813,7 +820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -833,7 +840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -853,7 +860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -873,7 +880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -893,7 +900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -913,7 +920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -933,7 +940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -953,7 +960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -973,7 +980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -993,7 +1000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1013,7 +1020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1033,7 +1040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1053,7 +1060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1073,7 +1080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1093,7 +1100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1113,7 +1120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1133,7 +1140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1573,7 +1580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -1593,7 +1600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -1613,7 +1620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -1633,7 +1640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -1653,7 +1660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -1673,7 +1680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -1693,7 +1700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -1713,7 +1720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -1733,7 +1740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -1753,7 +1760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -1773,7 +1780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -1793,7 +1800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1813,7 +1820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" hidden="1">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -1833,7 +1840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -1853,7 +1860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -1873,7 +1880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" hidden="1">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -1893,7 +1900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -1913,7 +1920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -1933,7 +1940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -1953,7 +1960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" hidden="1">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -1973,7 +1980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" hidden="1">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -1993,7 +2000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" hidden="1">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -2013,7 +2020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" hidden="1">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2033,7 +2040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -2053,7 +2060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" hidden="1">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -2073,7 +2080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" hidden="1">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -2093,7 +2100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -2113,7 +2120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" hidden="1">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -2133,7 +2140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -2153,7 +2160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -2173,7 +2180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -2193,7 +2200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -2213,7 +2220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" hidden="1">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -2233,7 +2240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" hidden="1">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -2253,7 +2260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -2273,7 +2280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -2293,7 +2300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -2313,7 +2320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" hidden="1">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -2333,7 +2340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" hidden="1">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2353,7 +2360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" hidden="1">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -2373,7 +2380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" hidden="1">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -2393,7 +2400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" hidden="1">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -2413,7 +2420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" hidden="1">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -2433,7 +2440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -2453,7 +2460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" hidden="1">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -2473,7 +2480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -2493,7 +2500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" hidden="1">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -2513,7 +2520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" hidden="1">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -2533,7 +2540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" hidden="1">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -2553,7 +2560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" hidden="1">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -2573,7 +2580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" hidden="1">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -2593,7 +2600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" hidden="1">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -2613,7 +2620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" hidden="1">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -2633,7 +2640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" hidden="1">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -2653,7 +2660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" hidden="1">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -2673,7 +2680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" hidden="1">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -2693,7 +2700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" hidden="1">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -2713,7 +2720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" hidden="1">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -2733,7 +2740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" hidden="1">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -2753,7 +2760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" hidden="1">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -2773,7 +2780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1">
       <c r="A110" t="s">
         <v>23</v>
       </c>
@@ -2793,7 +2800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1">
       <c r="A111" t="s">
         <v>23</v>
       </c>
@@ -2813,7 +2820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" hidden="1">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -2833,7 +2840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" hidden="1">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -2853,7 +2860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -2873,7 +2880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115" t="s">
         <v>23</v>
       </c>
@@ -2893,7 +2900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" hidden="1">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -2913,7 +2920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" hidden="1">
       <c r="A117" t="s">
         <v>24</v>
       </c>
@@ -2933,7 +2940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" hidden="1">
       <c r="A118" t="s">
         <v>24</v>
       </c>
@@ -2953,7 +2960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -2973,7 +2980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -2993,7 +3000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" t="s">
         <v>24</v>
       </c>
@@ -3013,7 +3020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -3033,7 +3040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" hidden="1">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -3053,7 +3060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" hidden="1">
       <c r="A124" t="s">
         <v>24</v>
       </c>
@@ -3073,7 +3080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" hidden="1">
       <c r="A125" t="s">
         <v>24</v>
       </c>
@@ -3093,7 +3100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" hidden="1">
       <c r="A126" t="s">
         <v>24</v>
       </c>
@@ -3113,7 +3120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" hidden="1">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -3133,7 +3140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" hidden="1">
       <c r="A128" t="s">
         <v>24</v>
       </c>
@@ -3153,7 +3160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" hidden="1">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -3173,7 +3180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -3193,7 +3200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" hidden="1">
       <c r="A131" t="s">
         <v>24</v>
       </c>
@@ -3213,7 +3220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" hidden="1">
       <c r="A132" t="s">
         <v>24</v>
       </c>
@@ -3233,7 +3240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" hidden="1">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -3253,7 +3260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -3273,7 +3280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" hidden="1">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -3293,7 +3300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" hidden="1">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -3313,7 +3320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" hidden="1">
       <c r="A137" t="s">
         <v>24</v>
       </c>
@@ -3333,7 +3340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" hidden="1">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -3353,7 +3360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" hidden="1">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -3373,7 +3380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" hidden="1">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -3393,7 +3400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" hidden="1">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -3413,7 +3420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" hidden="1">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -3433,7 +3440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" hidden="1">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -3453,7 +3460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" hidden="1">
       <c r="A144" t="s">
         <v>24</v>
       </c>
@@ -3473,7 +3480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -3493,7 +3500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -3513,7 +3520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -3533,7 +3540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" hidden="1">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -3553,7 +3560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" hidden="1">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -3573,7 +3580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" hidden="1">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -3593,7 +3600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" hidden="1">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -3613,7 +3620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" hidden="1">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -3633,7 +3640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" hidden="1">
       <c r="A153" t="s">
         <v>24</v>
       </c>
@@ -3653,7 +3660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" hidden="1">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -3673,7 +3680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" hidden="1">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -3693,7 +3700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" hidden="1">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -3713,7 +3720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" hidden="1">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -3733,7 +3740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" hidden="1">
       <c r="A158" t="s">
         <v>24</v>
       </c>
@@ -3753,7 +3760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" hidden="1">
       <c r="A159" t="s">
         <v>24</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" hidden="1">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -3793,7 +3800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" hidden="1">
       <c r="A161" s="3" t="s">
         <v>45</v>
       </c>
@@ -3813,7 +3820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" hidden="1">
       <c r="A162" s="3" t="s">
         <v>45</v>
       </c>
@@ -3833,7 +3840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" hidden="1">
       <c r="A163" s="3" t="s">
         <v>45</v>
       </c>
@@ -3853,7 +3860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" hidden="1">
       <c r="A164" s="3" t="s">
         <v>45</v>
       </c>
@@ -3873,7 +3880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" hidden="1">
       <c r="A165" s="3" t="s">
         <v>45</v>
       </c>
@@ -3893,7 +3900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" hidden="1">
       <c r="A166" s="3" t="s">
         <v>45</v>
       </c>
@@ -3913,7 +3920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" hidden="1">
       <c r="A167" s="3" t="s">
         <v>45</v>
       </c>
@@ -3933,7 +3940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" hidden="1">
       <c r="A168" s="3" t="s">
         <v>45</v>
       </c>
@@ -3953,7 +3960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" hidden="1">
       <c r="A169" s="3" t="s">
         <v>45</v>
       </c>
@@ -3973,7 +3980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" hidden="1">
       <c r="A170" s="3" t="s">
         <v>45</v>
       </c>
@@ -3993,7 +4000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" hidden="1">
       <c r="A171" s="3" t="s">
         <v>45</v>
       </c>
@@ -4013,7 +4020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" hidden="1">
       <c r="A172" s="3" t="s">
         <v>45</v>
       </c>
@@ -4033,7 +4040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" hidden="1">
       <c r="A173" s="3" t="s">
         <v>47</v>
       </c>
@@ -4053,7 +4060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" hidden="1">
       <c r="A174" s="3" t="s">
         <v>47</v>
       </c>
@@ -4073,7 +4080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" hidden="1">
       <c r="A175" s="3" t="s">
         <v>47</v>
       </c>
@@ -4093,7 +4100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" hidden="1">
       <c r="A176" s="3" t="s">
         <v>47</v>
       </c>
@@ -4113,7 +4120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" hidden="1">
       <c r="A177" s="3" t="s">
         <v>47</v>
       </c>
@@ -4133,7 +4140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" hidden="1">
       <c r="A178" s="3" t="s">
         <v>47</v>
       </c>
@@ -4153,7 +4160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" hidden="1">
       <c r="A179" s="3" t="s">
         <v>47</v>
       </c>
@@ -4173,7 +4180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" hidden="1">
       <c r="A180" s="3" t="s">
         <v>47</v>
       </c>
@@ -4193,7 +4200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" hidden="1">
       <c r="A181" s="3" t="s">
         <v>47</v>
       </c>

--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6461A6AB-C243-4CD9-8863-DD5B7ABA0EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B27B42D-A298-4D6D-BFA0-AE58950BF2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,14 +295,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}" name="Table1" displayName="Table1" ref="A1:F202" totalsRowShown="0">
-  <autoFilter ref="A1:F202" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Presencial 70.30"/>
-        <filter val="Presencial Atual"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F202" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F172">
     <sortCondition ref="A1:A172"/>
   </sortState>
@@ -584,7 +577,7 @@
   <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C2" sqref="C2:C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -620,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -640,7 +633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -660,7 +653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -680,7 +673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -700,7 +693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -720,7 +713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -740,7 +733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -760,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -780,7 +773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -800,7 +793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -820,7 +813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -840,7 +833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -860,7 +853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -880,7 +873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -900,7 +893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -920,7 +913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -940,7 +933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -960,7 +953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -980,7 +973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1000,7 +993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1020,7 +1013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1040,7 +1033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1060,7 +1053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1080,7 +1073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1100,7 +1093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1120,7 +1113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1140,7 +1133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1580,7 +1573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -1600,7 +1593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -1620,7 +1613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -1640,7 +1633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -1660,7 +1653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -1680,7 +1673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -1700,7 +1693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -1720,7 +1713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -1740,7 +1733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -1760,7 +1753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -1780,7 +1773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -1800,7 +1793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1820,7 +1813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -1840,7 +1833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -1860,7 +1853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -1880,7 +1873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -1900,7 +1893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -1920,7 +1913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -1940,7 +1933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -1960,7 +1953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -1980,7 +1973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -2000,7 +1993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -2020,7 +2013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2040,7 +2033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -2060,7 +2053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -2080,7 +2073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -2100,7 +2093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -2120,7 +2113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -2140,7 +2133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -2160,7 +2153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -2180,7 +2173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -2200,7 +2193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -2220,7 +2213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -2240,7 +2233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -2260,7 +2253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -2280,7 +2273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -2300,7 +2293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -2320,7 +2313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -2340,7 +2333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2360,7 +2353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -2380,7 +2373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -2400,7 +2393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -2420,7 +2413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -2440,7 +2433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -2460,7 +2453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -2480,7 +2473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -2500,7 +2493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -2520,7 +2513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -2540,7 +2533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -2560,7 +2553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -2580,7 +2573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -2600,7 +2593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -2620,7 +2613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -2640,7 +2633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -2660,7 +2653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -2680,7 +2673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -2700,7 +2693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -2720,7 +2713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -2740,7 +2733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -2760,7 +2753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -2780,7 +2773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>23</v>
       </c>
@@ -2800,7 +2793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>23</v>
       </c>
@@ -2820,7 +2813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -2840,7 +2833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -2860,7 +2853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -2880,7 +2873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>23</v>
       </c>
@@ -2900,7 +2893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -2920,7 +2913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>24</v>
       </c>
@@ -2940,7 +2933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>24</v>
       </c>
@@ -2960,7 +2953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -2980,7 +2973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -3000,7 +2993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>24</v>
       </c>
@@ -3020,7 +3013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -3040,7 +3033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -3060,7 +3053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>24</v>
       </c>
@@ -3080,7 +3073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>24</v>
       </c>
@@ -3100,7 +3093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>24</v>
       </c>
@@ -3120,7 +3113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -3140,7 +3133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>24</v>
       </c>
@@ -3160,7 +3153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -3180,7 +3173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -3200,7 +3193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>24</v>
       </c>
@@ -3220,7 +3213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>24</v>
       </c>
@@ -3240,7 +3233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -3260,7 +3253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -3280,7 +3273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -3300,7 +3293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -3320,7 +3313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>24</v>
       </c>
@@ -3340,7 +3333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -3360,7 +3353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -3380,7 +3373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -3400,7 +3393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -3420,7 +3413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -3440,7 +3433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -3460,7 +3453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>24</v>
       </c>
@@ -3480,7 +3473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -3500,7 +3493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -3520,7 +3513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -3540,7 +3533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -3560,7 +3553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -3580,7 +3573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -3600,7 +3593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -3620,7 +3613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -3640,7 +3633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>24</v>
       </c>
@@ -3660,7 +3653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -3680,7 +3673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -3700,7 +3693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -3720,7 +3713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -3740,7 +3733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>24</v>
       </c>
@@ -3760,7 +3753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>24</v>
       </c>
@@ -3780,7 +3773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -3800,7 +3793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1">
+    <row r="161" spans="1:6">
       <c r="A161" s="3" t="s">
         <v>45</v>
       </c>
@@ -3820,7 +3813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1">
+    <row r="162" spans="1:6">
       <c r="A162" s="3" t="s">
         <v>45</v>
       </c>
@@ -3840,7 +3833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1">
+    <row r="163" spans="1:6">
       <c r="A163" s="3" t="s">
         <v>45</v>
       </c>
@@ -3860,7 +3853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1">
+    <row r="164" spans="1:6">
       <c r="A164" s="3" t="s">
         <v>45</v>
       </c>
@@ -3880,7 +3873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1">
+    <row r="165" spans="1:6">
       <c r="A165" s="3" t="s">
         <v>45</v>
       </c>
@@ -3900,7 +3893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1">
+    <row r="166" spans="1:6">
       <c r="A166" s="3" t="s">
         <v>45</v>
       </c>
@@ -3920,7 +3913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1">
+    <row r="167" spans="1:6">
       <c r="A167" s="3" t="s">
         <v>45</v>
       </c>
@@ -3940,7 +3933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1">
+    <row r="168" spans="1:6">
       <c r="A168" s="3" t="s">
         <v>45</v>
       </c>
@@ -3960,7 +3953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1">
+    <row r="169" spans="1:6">
       <c r="A169" s="3" t="s">
         <v>45</v>
       </c>
@@ -3980,7 +3973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1">
+    <row r="170" spans="1:6">
       <c r="A170" s="3" t="s">
         <v>45</v>
       </c>
@@ -4000,7 +3993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1">
+    <row r="171" spans="1:6">
       <c r="A171" s="3" t="s">
         <v>45</v>
       </c>
@@ -4020,7 +4013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1">
+    <row r="172" spans="1:6">
       <c r="A172" s="3" t="s">
         <v>45</v>
       </c>
@@ -4040,7 +4033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1">
+    <row r="173" spans="1:6">
       <c r="A173" s="3" t="s">
         <v>47</v>
       </c>
@@ -4060,7 +4053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1">
+    <row r="174" spans="1:6">
       <c r="A174" s="3" t="s">
         <v>47</v>
       </c>
@@ -4080,7 +4073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1">
+    <row r="175" spans="1:6">
       <c r="A175" s="3" t="s">
         <v>47</v>
       </c>
@@ -4100,7 +4093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1">
+    <row r="176" spans="1:6">
       <c r="A176" s="3" t="s">
         <v>47</v>
       </c>
@@ -4120,7 +4113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1">
+    <row r="177" spans="1:6">
       <c r="A177" s="3" t="s">
         <v>47</v>
       </c>
@@ -4140,7 +4133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1">
+    <row r="178" spans="1:6">
       <c r="A178" s="3" t="s">
         <v>47</v>
       </c>
@@ -4160,7 +4153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1">
+    <row r="179" spans="1:6">
       <c r="A179" s="3" t="s">
         <v>47</v>
       </c>
@@ -4180,7 +4173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1">
+    <row r="180" spans="1:6">
       <c r="A180" s="3" t="s">
         <v>47</v>
       </c>
@@ -4200,7 +4193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1">
+    <row r="181" spans="1:6">
       <c r="A181" s="3" t="s">
         <v>47</v>
       </c>

--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B27B42D-A298-4D6D-BFA0-AE58950BF2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0ECF03-61DF-4597-B552-AE479DF1C13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,7 +295,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}" name="Table1" displayName="Table1" ref="A1:F202" totalsRowShown="0">
-  <autoFilter ref="A1:F202" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}"/>
+  <autoFilter ref="A1:F202" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="EAD Atual"/>
+        <filter val="Presencial 70.30"/>
+        <filter val="Presencial Atual"/>
+        <filter val="Semi Presencial Atual"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F172">
     <sortCondition ref="A1:A172"/>
   </sortState>
@@ -577,7 +586,7 @@
   <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C202"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -613,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -633,7 +642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -653,7 +662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -673,7 +682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -693,7 +702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -713,7 +722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -733,7 +742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -753,7 +762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -773,7 +782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -793,7 +802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -813,7 +822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -833,7 +842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -853,7 +862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -873,7 +882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -893,7 +902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -913,7 +922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -933,7 +942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -953,7 +962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -973,7 +982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -993,7 +1002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1013,7 +1022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1033,7 +1042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1053,7 +1062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1073,7 +1082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1093,7 +1102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1113,7 +1122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1133,7 +1142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1573,7 +1582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -1593,7 +1602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -1613,7 +1622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -1633,7 +1642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -1653,7 +1662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -1673,7 +1682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -1693,7 +1702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -1713,7 +1722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -1753,7 +1762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -1773,7 +1782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -1793,7 +1802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1813,7 +1822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" hidden="1">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -1833,7 +1842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -1853,7 +1862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -1873,7 +1882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" hidden="1">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -1893,7 +1902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -1913,7 +1922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -1933,7 +1942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -1953,7 +1962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" hidden="1">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -1973,7 +1982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" hidden="1">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -1993,7 +2002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" hidden="1">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -2013,7 +2022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" hidden="1">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2033,7 +2042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -2053,7 +2062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" hidden="1">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -2073,7 +2082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" hidden="1">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -2093,7 +2102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -2113,7 +2122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" hidden="1">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -2133,7 +2142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -2153,7 +2162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -2193,7 +2202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -2213,7 +2222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" hidden="1">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -2233,7 +2242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" hidden="1">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -2253,7 +2262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -2273,7 +2282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -2293,7 +2302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -2313,7 +2322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" hidden="1">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -2333,7 +2342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" hidden="1">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2353,7 +2362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" hidden="1">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -2373,7 +2382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" hidden="1">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -2393,7 +2402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" hidden="1">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -2413,7 +2422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" hidden="1">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -2433,7 +2442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -2453,7 +2462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" hidden="1">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -2473,7 +2482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -2493,7 +2502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" hidden="1">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -2513,7 +2522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" hidden="1">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -2533,7 +2542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" hidden="1">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -2553,7 +2562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" hidden="1">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -2573,7 +2582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" hidden="1">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -2593,7 +2602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" hidden="1">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -2613,7 +2622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" hidden="1">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -2633,7 +2642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" hidden="1">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -2653,7 +2662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" hidden="1">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -2673,7 +2682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" hidden="1">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -2693,7 +2702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" hidden="1">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -2713,7 +2722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" hidden="1">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -2733,7 +2742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" hidden="1">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -2753,7 +2762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" hidden="1">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -2773,7 +2782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1">
       <c r="A110" t="s">
         <v>23</v>
       </c>
@@ -2793,7 +2802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1">
       <c r="A111" t="s">
         <v>23</v>
       </c>
@@ -2813,7 +2822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" hidden="1">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -2833,7 +2842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" hidden="1">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -2853,7 +2862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -2873,7 +2882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115" t="s">
         <v>23</v>
       </c>
@@ -2893,7 +2902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" hidden="1">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -2913,7 +2922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" hidden="1">
       <c r="A117" t="s">
         <v>24</v>
       </c>
@@ -2933,7 +2942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" hidden="1">
       <c r="A118" t="s">
         <v>24</v>
       </c>
@@ -2953,7 +2962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -2973,7 +2982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -2993,7 +3002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" t="s">
         <v>24</v>
       </c>
@@ -3013,7 +3022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -3033,7 +3042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" hidden="1">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -3053,7 +3062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" hidden="1">
       <c r="A124" t="s">
         <v>24</v>
       </c>
@@ -3073,7 +3082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" hidden="1">
       <c r="A125" t="s">
         <v>24</v>
       </c>
@@ -3093,7 +3102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" hidden="1">
       <c r="A126" t="s">
         <v>24</v>
       </c>
@@ -3113,7 +3122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" hidden="1">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -3133,7 +3142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" hidden="1">
       <c r="A128" t="s">
         <v>24</v>
       </c>
@@ -3153,7 +3162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" hidden="1">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -3173,7 +3182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -3193,7 +3202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" hidden="1">
       <c r="A131" t="s">
         <v>24</v>
       </c>
@@ -3213,7 +3222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" hidden="1">
       <c r="A132" t="s">
         <v>24</v>
       </c>
@@ -3233,7 +3242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" hidden="1">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -3253,7 +3262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -3273,7 +3282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" hidden="1">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -3293,7 +3302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" hidden="1">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -3313,7 +3322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" hidden="1">
       <c r="A137" t="s">
         <v>24</v>
       </c>
@@ -3333,7 +3342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" hidden="1">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -3353,7 +3362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" hidden="1">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -3373,7 +3382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" hidden="1">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -3393,7 +3402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" hidden="1">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -3413,7 +3422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" hidden="1">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -3433,7 +3442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" hidden="1">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -3453,7 +3462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" hidden="1">
       <c r="A144" t="s">
         <v>24</v>
       </c>
@@ -3473,7 +3482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -3493,7 +3502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -3513,7 +3522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -3533,7 +3542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" hidden="1">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -3553,7 +3562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" hidden="1">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -3573,7 +3582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" hidden="1">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -3593,7 +3602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" hidden="1">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -3613,7 +3622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" hidden="1">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" hidden="1">
       <c r="A153" t="s">
         <v>24</v>
       </c>
@@ -3653,7 +3662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" hidden="1">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -3673,7 +3682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" hidden="1">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -3693,7 +3702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" hidden="1">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -3713,7 +3722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" hidden="1">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -3733,7 +3742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" hidden="1">
       <c r="A158" t="s">
         <v>24</v>
       </c>
@@ -3753,7 +3762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" hidden="1">
       <c r="A159" t="s">
         <v>24</v>
       </c>
@@ -3773,7 +3782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" hidden="1">
       <c r="A160" t="s">
         <v>24</v>
       </c>

--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0ECF03-61DF-4597-B552-AE479DF1C13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6BDB77-172C-4C89-8963-0467B7D74094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,18 +295,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}" name="Table1" displayName="Table1" ref="A1:F202" totalsRowShown="0">
-  <autoFilter ref="A1:F202" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="EAD Atual"/>
-        <filter val="Presencial 70.30"/>
-        <filter val="Presencial Atual"/>
-        <filter val="Semi Presencial Atual"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F172">
-    <sortCondition ref="A1:A172"/>
+  <autoFilter ref="A1:F202" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F187">
+    <sortCondition ref="A1:A202"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6A60AEFD-F1D8-4A8A-AD63-1AB0B11CC907}" name="Modelo"/>
@@ -586,7 +577,7 @@
   <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -622,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -642,7 +633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -662,7 +653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -682,7 +673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -702,7 +693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -722,7 +713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -742,7 +733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -762,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -782,7 +773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -802,7 +793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -822,7 +813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -842,7 +833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -862,7 +853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -882,7 +873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -902,7 +893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -922,7 +913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -942,7 +933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -962,7 +953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -982,7 +973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1002,7 +993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1022,7 +1013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1042,7 +1033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1062,7 +1053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1082,7 +1073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1102,7 +1093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1122,7 +1113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1142,7 +1133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1163,62 +1154,62 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>35</v>
+      <c r="A29" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>35</v>
+      <c r="A30" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3">
+        <v>55.08</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>35</v>
+      <c r="A31" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31">
-        <v>80</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="3">
+        <v>120</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1230,16 +1221,16 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1250,16 +1241,16 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="1">
-        <v>55.08</v>
+        <v>18</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.5</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1270,16 +1261,16 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="1">
-        <v>55.08</v>
+        <v>19</v>
+      </c>
+      <c r="D34">
+        <v>80</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1582,18 +1573,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -1602,29 +1593,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51">
-        <v>1000</v>
+        <v>17</v>
+      </c>
+      <c r="D51" s="1">
+        <v>55.08</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>7</v>
@@ -1642,9 +1633,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>7</v>
@@ -1652,99 +1643,99 @@
       <c r="C53" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="5">
-        <v>2</v>
+      <c r="D53">
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54">
-        <v>550</v>
+        <v>18</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.5</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="1">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>80</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" hidden="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57">
-        <v>99999</v>
+        <v>17</v>
+      </c>
+      <c r="D57" s="1">
+        <v>55.08</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>7</v>
@@ -1756,13 +1747,13 @@
         <v>55.08</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" hidden="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -1782,7 +1773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -1802,7 +1793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1822,7 +1813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -1842,7 +1833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -1862,7 +1853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -1882,7 +1873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -1902,7 +1893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -1910,19 +1901,19 @@
         <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="1">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -1942,7 +1933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -1962,7 +1953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -1982,7 +1973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -2002,7 +1993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -2022,7 +2013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2030,19 +2021,19 @@
         <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="D72" s="1">
+        <v>21</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -2062,7 +2053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -2082,7 +2073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -2102,7 +2093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -2122,7 +2113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -2142,7 +2133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -2162,7 +2153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -2182,7 +2173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -2202,7 +2193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -2222,7 +2213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -2242,18 +2233,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83">
-        <v>1000</v>
+        <v>0.5</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
@@ -2262,18 +2253,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="1">
-        <v>55.08</v>
+        <v>19</v>
+      </c>
+      <c r="D84">
+        <v>1000</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
@@ -2282,18 +2273,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85">
-        <v>0.5</v>
+        <v>17</v>
+      </c>
+      <c r="D85" s="1">
+        <v>55.08</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
@@ -2302,9 +2293,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>7</v>
@@ -2322,9 +2313,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>7</v>
@@ -2342,9 +2333,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>7</v>
@@ -2362,9 +2353,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>7</v>
@@ -2382,9 +2373,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>7</v>
@@ -2402,9 +2393,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>7</v>
@@ -2422,7 +2413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -2442,7 +2433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -2462,7 +2453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -2482,7 +2473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -2502,7 +2493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -2522,7 +2513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -2542,7 +2533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -2562,7 +2553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -2582,7 +2573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -2602,7 +2593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -2622,7 +2613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -2642,7 +2633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -2662,7 +2653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -2682,7 +2673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -2702,7 +2693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -2722,7 +2713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -2742,7 +2733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -2762,7 +2753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -2782,7 +2773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>23</v>
       </c>
@@ -2802,7 +2793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>23</v>
       </c>
@@ -2822,7 +2813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -2842,7 +2833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -2862,7 +2853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -2882,7 +2873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>23</v>
       </c>
@@ -2902,169 +2893,169 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>18</v>
-      </c>
-      <c r="D116" s="5">
+        <v>19</v>
+      </c>
+      <c r="D116">
+        <v>1000</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="1">
+        <v>55.08</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118">
+        <v>0.5</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="5">
         <v>2</v>
       </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1">
-      <c r="A117" t="s">
-        <v>24</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117">
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120">
         <v>550</v>
       </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1">
-      <c r="A118" t="s">
-        <v>24</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="1">
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="1">
         <v>21</v>
       </c>
-      <c r="E118" t="s">
-        <v>8</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1">
-      <c r="A119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
-        <v>18</v>
-      </c>
-      <c r="D119">
-        <v>0.5</v>
-      </c>
-      <c r="E119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" hidden="1">
-      <c r="A120" t="s">
-        <v>24</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120">
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122">
         <v>3</v>
       </c>
-      <c r="E120" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" hidden="1">
-      <c r="A121" t="s">
-        <v>24</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121">
-        <v>1000</v>
-      </c>
-      <c r="E121" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" hidden="1">
-      <c r="A122" t="s">
-        <v>24</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122">
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123">
         <v>99999</v>
       </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" hidden="1">
-      <c r="A123" t="s">
-        <v>24</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="1">
-        <v>55.08</v>
-      </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>7</v>
@@ -3082,7 +3073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>24</v>
       </c>
@@ -3102,7 +3093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>24</v>
       </c>
@@ -3122,7 +3113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -3142,7 +3133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>24</v>
       </c>
@@ -3162,7 +3153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -3182,7 +3173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -3202,7 +3193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>24</v>
       </c>
@@ -3222,7 +3213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>24</v>
       </c>
@@ -3242,7 +3233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -3262,7 +3253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -3282,7 +3273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -3302,7 +3293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -3322,7 +3313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>24</v>
       </c>
@@ -3342,7 +3333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -3362,7 +3353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -3382,7 +3373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -3402,7 +3393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -3422,7 +3413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -3442,7 +3433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -3462,7 +3453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>24</v>
       </c>
@@ -3482,7 +3473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -3502,7 +3493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -3522,7 +3513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -3542,7 +3533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -3562,7 +3553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -3582,7 +3573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -3602,7 +3593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -3622,7 +3613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -3642,7 +3633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>24</v>
       </c>
@@ -3662,7 +3653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -3682,7 +3673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -3702,7 +3693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -3722,7 +3713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -3742,7 +3733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>24</v>
       </c>
@@ -3762,7 +3753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>24</v>
       </c>
@@ -3782,7 +3773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -3803,63 +3794,63 @@
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="3" t="s">
-        <v>45</v>
+      <c r="A161" t="s">
+        <v>24</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D161" s="3">
+      <c r="C161" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" s="5">
         <v>2</v>
       </c>
-      <c r="E161" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>16</v>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="3" t="s">
-        <v>45</v>
+      <c r="A162" t="s">
+        <v>24</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" s="3">
-        <v>55.08</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>16</v>
+      <c r="C162" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162">
+        <v>550</v>
+      </c>
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="3" t="s">
-        <v>45</v>
+      <c r="A163" t="s">
+        <v>24</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C163" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="3">
-        <v>120</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>16</v>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="1">
+        <v>21</v>
+      </c>
+      <c r="E163" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4043,63 +4034,63 @@
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="3" t="s">
-        <v>47</v>
+      <c r="A173" t="s">
+        <v>24</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D173" s="3">
-        <v>2</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>16</v>
+      <c r="C173" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173">
+        <v>0.5</v>
+      </c>
+      <c r="E173" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="3" t="s">
-        <v>47</v>
+      <c r="A174" t="s">
+        <v>24</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C174" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D174" s="3">
-        <v>55.08</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F174" s="3" t="s">
+      <c r="C174" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+      <c r="E174" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="3" t="s">
-        <v>47</v>
+      <c r="A175" t="s">
+        <v>24</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C175" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D175" s="3">
-        <v>120</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>16</v>
+      <c r="C175" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175">
+        <v>1000</v>
+      </c>
+      <c r="E175" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4224,19 +4215,19 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F182" t="s">
         <v>16</v>
@@ -4244,16 +4235,16 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>18</v>
-      </c>
-      <c r="D183" s="2">
-        <v>0.5</v>
+        <v>17</v>
+      </c>
+      <c r="D183" s="1">
+        <v>55.08</v>
       </c>
       <c r="E183" t="s">
         <v>10</v>
@@ -4264,82 +4255,82 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>19</v>
-      </c>
-      <c r="D184">
-        <v>80</v>
+        <v>17</v>
+      </c>
+      <c r="D184" s="1">
+        <v>55.08</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F184" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" t="s">
-        <v>49</v>
+      <c r="A185" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C185" t="s">
-        <v>19</v>
-      </c>
-      <c r="D185">
-        <v>1000</v>
-      </c>
-      <c r="E185" t="s">
-        <v>10</v>
-      </c>
-      <c r="F185" t="s">
-        <v>12</v>
+      <c r="C185" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" s="3">
+        <v>2</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" t="s">
-        <v>49</v>
+      <c r="A186" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C186" t="s">
-        <v>17</v>
-      </c>
-      <c r="D186" s="1">
+      <c r="C186" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="3">
         <v>55.08</v>
       </c>
-      <c r="E186" t="s">
-        <v>10</v>
-      </c>
-      <c r="F186" t="s">
+      <c r="E186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" t="s">
-        <v>49</v>
+      <c r="A187" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C187" t="s">
-        <v>17</v>
-      </c>
-      <c r="D187" s="1">
-        <v>55.08</v>
-      </c>
-      <c r="E187" t="s">
-        <v>10</v>
-      </c>
-      <c r="F187" t="s">
-        <v>12</v>
+      <c r="C187" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187" s="3">
+        <v>120</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:6">

--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6BDB77-172C-4C89-8963-0467B7D74094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5F0073-0C29-4D01-87BE-C662EC14F646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet5!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="57">
   <si>
     <t>Tipo de UC</t>
   </si>
@@ -193,6 +197,27 @@
   <si>
     <t>Presencial Atual</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Count of Ator Pedagógico</t>
+  </si>
+  <si>
+    <t>UC (6-8) 30.20 Licenciatura</t>
+  </si>
+  <si>
+    <t>UC (7-8) EAD 10.10</t>
+  </si>
+  <si>
+    <t>Mais de 1 ator pedagógico no mesmo tipo de ch</t>
+  </si>
 </sst>
 </file>
 
@@ -249,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -271,6 +296,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -293,9 +323,1804 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kaique Rodrigues" refreshedDate="45908.340321759257" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="201" xr:uid="{16D5C093-F44B-4A65-BCCA-26093D54D067}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Modelo" numFmtId="0">
+      <sharedItems count="8">
+        <s v="EAD 10.10"/>
+        <s v="EAD Atual"/>
+        <s v="Presencial 70.30"/>
+        <s v="Presencial Atual"/>
+        <s v="Semi Presencial 30.20 Bacharelado"/>
+        <s v="Semi Presencial 30.20 Licenciatura"/>
+        <s v="Semi Presencial 40.20 Bacharelado"/>
+        <s v="Semi Presencial Atual"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tipo de UC" numFmtId="0">
+      <sharedItems count="15">
+        <s v="AFP"/>
+        <s v="EXTENSÃO"/>
+        <s v="TCC"/>
+        <s v="UC (1-6)"/>
+        <s v="UC (7-8)"/>
+        <s v="UC (1-5)"/>
+        <s v="ESTÁGIO"/>
+        <s v="UC (6-10)"/>
+        <s v="UC (1-3)"/>
+        <s v="UC (4-8)"/>
+        <s v="PPI"/>
+        <s v="UC (6-8)"/>
+        <s v="UC (10)"/>
+        <s v="UC (7-9)"/>
+        <s v="UC"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Parâmetro" numFmtId="0">
+      <sharedItems count="3">
+        <s v="CH Semanal"/>
+        <s v="Máximo de Alunos por Turma"/>
+        <s v="Remuneração por Hora"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Valor" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.5" maxValue="99999"/>
+    </cacheField>
+    <cacheField name="Tipo de CH" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Síncrono"/>
+        <s v="Assíncrono"/>
+        <s v="Síncrono Mediado"/>
+        <s v="Presencial"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Ator Pedagógico" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="201">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1000"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="550"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="550"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="20"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="70"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="550"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="80"/>
+    <x v="0"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="20"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="450"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="20"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="0"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="0"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1000"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="0"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="80"/>
+    <x v="0"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1000"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="0"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="10.37"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="20"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="70"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="2.5"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="70"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1000"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="550"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="20"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="10.37"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="20"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="20"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="550"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1000"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="550"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="20"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="10.37"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="20"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="70"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="2.5"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="70"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="70"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="2"/>
+    <s v="Mediador Online"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="2.5"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="550"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="1"/>
+    <s v="Mediador Assíncrono"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="10.37"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="6.5"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Mediador Presencial"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1000"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="10.37"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="1.1000000000000001"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="550"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="99999"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="0"/>
+    <s v="Especialista"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="1"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="20"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="450"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="20"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="120"/>
+    <x v="0"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="3"/>
+    <s v="Professor Regente"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="55.08"/>
+    <x v="0"/>
+    <s v="Professor Regente"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{031B9411-6AEB-4F4F-AB7C-2D5FFE7E8F03}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="16">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="1"/>
+        <item h="1" x="10"/>
+        <item h="1" x="2"/>
+        <item h="1" x="14"/>
+        <item h="1" x="12"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="11"/>
+        <item h="1" x="4"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Ator Pedagógico" fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="49"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}" name="Table1" displayName="Table1" ref="A1:F202" totalsRowShown="0">
-  <autoFilter ref="A1:F202" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}"/>
+  <autoFilter ref="A1:F202" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Semi Presencial 30.20 Bacharelado"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="UC (1-3)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F187">
     <sortCondition ref="A1:A202"/>
   </sortState>
@@ -577,7 +2402,7 @@
   <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="C68" sqref="C68:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -613,7 +2438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -633,7 +2458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -653,7 +2478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -673,7 +2498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -693,7 +2518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -713,7 +2538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -733,7 +2558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -753,7 +2578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -773,7 +2598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -793,7 +2618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -813,7 +2638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -833,7 +2658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -853,7 +2678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -873,7 +2698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -893,7 +2718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -913,7 +2738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -933,7 +2758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -953,7 +2778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -973,7 +2798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -993,7 +2818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1013,7 +2838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1033,7 +2858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1053,7 +2878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1073,7 +2898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1093,7 +2918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1113,7 +2938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1133,7 +2958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1153,7 +2978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
@@ -1173,7 +2998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" s="3" t="s">
         <v>47</v>
       </c>
@@ -1193,7 +3018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" s="3" t="s">
         <v>47</v>
       </c>
@@ -1213,7 +3038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1233,7 +3058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1253,7 +3078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1273,7 +3098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1293,7 +3118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1313,7 +3138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1333,7 +3158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1353,7 +3178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1373,7 +3198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -1393,7 +3218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1413,7 +3238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -1433,7 +3258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -1453,7 +3278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -1473,7 +3298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -1493,7 +3318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -1513,7 +3338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" hidden="1">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -1533,7 +3358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" hidden="1">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -1553,7 +3378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" hidden="1">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -1573,7 +3398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -1593,7 +3418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -1613,7 +3438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -1633,7 +3458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -1653,7 +3478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -1673,7 +3498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -1693,7 +3518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -1713,7 +3538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -1733,7 +3558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -1753,7 +3578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -1773,7 +3598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -1793,7 +3618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1813,7 +3638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" hidden="1">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -1833,7 +3658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -1853,7 +3678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -2053,7 +3878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" hidden="1">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -2073,7 +3898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" hidden="1">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -2093,7 +3918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -2113,7 +3938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" hidden="1">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -2133,7 +3958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -2153,7 +3978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -2173,7 +3998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -2193,7 +4018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -2213,7 +4038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" hidden="1">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -2233,7 +4058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" hidden="1">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -2253,7 +4078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -2273,7 +4098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2293,7 +4118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -2313,7 +4138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" hidden="1">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -2333,7 +4158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" hidden="1">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -2353,7 +4178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" hidden="1">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -2373,7 +4198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" hidden="1">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -2393,7 +4218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" hidden="1">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -2413,7 +4238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" hidden="1">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -2433,7 +4258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -2453,7 +4278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" hidden="1">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -2473,7 +4298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -2493,7 +4318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" hidden="1">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -2513,7 +4338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" hidden="1">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -2533,7 +4358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" hidden="1">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -2553,7 +4378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" hidden="1">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -2573,7 +4398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" hidden="1">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -2593,7 +4418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" hidden="1">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -2613,7 +4438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" hidden="1">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -2633,7 +4458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" hidden="1">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -2653,7 +4478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" hidden="1">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -2673,7 +4498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" hidden="1">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -2693,7 +4518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" hidden="1">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -2713,7 +4538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" hidden="1">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -2733,7 +4558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" hidden="1">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -2753,7 +4578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" hidden="1">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -2773,7 +4598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1">
       <c r="A110" t="s">
         <v>23</v>
       </c>
@@ -2793,7 +4618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1">
       <c r="A111" t="s">
         <v>23</v>
       </c>
@@ -2813,7 +4638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" hidden="1">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -2833,7 +4658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" hidden="1">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -2853,7 +4678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -2873,7 +4698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115" t="s">
         <v>23</v>
       </c>
@@ -2893,7 +4718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" hidden="1">
       <c r="A116" t="s">
         <v>23</v>
       </c>
@@ -2913,7 +4738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" hidden="1">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -2933,7 +4758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" hidden="1">
       <c r="A118" t="s">
         <v>23</v>
       </c>
@@ -2953,7 +4778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" t="s">
         <v>23</v>
       </c>
@@ -2973,7 +4798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -2993,7 +4818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -3013,7 +4838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122" t="s">
         <v>23</v>
       </c>
@@ -3033,7 +4858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" hidden="1">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -3053,7 +4878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" hidden="1">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -3073,7 +4898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" hidden="1">
       <c r="A125" t="s">
         <v>24</v>
       </c>
@@ -3093,7 +4918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" hidden="1">
       <c r="A126" t="s">
         <v>24</v>
       </c>
@@ -3113,7 +4938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" hidden="1">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -3133,7 +4958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" hidden="1">
       <c r="A128" t="s">
         <v>24</v>
       </c>
@@ -3153,7 +4978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" hidden="1">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -3173,7 +4998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -3193,7 +5018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" hidden="1">
       <c r="A131" t="s">
         <v>24</v>
       </c>
@@ -3213,7 +5038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" hidden="1">
       <c r="A132" t="s">
         <v>24</v>
       </c>
@@ -3233,7 +5058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" hidden="1">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -3253,7 +5078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -3273,7 +5098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" hidden="1">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -3293,7 +5118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" hidden="1">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -3313,7 +5138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" hidden="1">
       <c r="A137" t="s">
         <v>24</v>
       </c>
@@ -3333,7 +5158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" hidden="1">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -3353,7 +5178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" hidden="1">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -3373,7 +5198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" hidden="1">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -3393,7 +5218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" hidden="1">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -3413,7 +5238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" hidden="1">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -3433,7 +5258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" hidden="1">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -3453,7 +5278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" hidden="1">
       <c r="A144" t="s">
         <v>24</v>
       </c>
@@ -3473,7 +5298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -3493,7 +5318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -3513,7 +5338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -3533,7 +5358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" hidden="1">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -3553,7 +5378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" hidden="1">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -3573,7 +5398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" hidden="1">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -3593,7 +5418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" hidden="1">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -3613,7 +5438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" hidden="1">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -3633,7 +5458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" hidden="1">
       <c r="A153" t="s">
         <v>24</v>
       </c>
@@ -3653,7 +5478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" hidden="1">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -3673,7 +5498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" hidden="1">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -3693,7 +5518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" hidden="1">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -3713,7 +5538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" hidden="1">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -3733,7 +5558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" hidden="1">
       <c r="A158" t="s">
         <v>24</v>
       </c>
@@ -3753,7 +5578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" hidden="1">
       <c r="A159" t="s">
         <v>24</v>
       </c>
@@ -3773,7 +5598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" hidden="1">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -3793,7 +5618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" hidden="1">
       <c r="A161" t="s">
         <v>24</v>
       </c>
@@ -3813,7 +5638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" hidden="1">
       <c r="A162" t="s">
         <v>24</v>
       </c>
@@ -3833,7 +5658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" hidden="1">
       <c r="A163" t="s">
         <v>24</v>
       </c>
@@ -3853,7 +5678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" hidden="1">
       <c r="A164" s="3" t="s">
         <v>45</v>
       </c>
@@ -3873,7 +5698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" hidden="1">
       <c r="A165" s="3" t="s">
         <v>45</v>
       </c>
@@ -3893,7 +5718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" hidden="1">
       <c r="A166" s="3" t="s">
         <v>45</v>
       </c>
@@ -3913,7 +5738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" hidden="1">
       <c r="A167" s="3" t="s">
         <v>45</v>
       </c>
@@ -3933,7 +5758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" hidden="1">
       <c r="A168" s="3" t="s">
         <v>45</v>
       </c>
@@ -3953,7 +5778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" hidden="1">
       <c r="A169" s="3" t="s">
         <v>45</v>
       </c>
@@ -3973,7 +5798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" hidden="1">
       <c r="A170" s="3" t="s">
         <v>45</v>
       </c>
@@ -3993,7 +5818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" hidden="1">
       <c r="A171" s="3" t="s">
         <v>45</v>
       </c>
@@ -4013,7 +5838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" hidden="1">
       <c r="A172" s="3" t="s">
         <v>45</v>
       </c>
@@ -4033,7 +5858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" hidden="1">
       <c r="A173" t="s">
         <v>24</v>
       </c>
@@ -4053,7 +5878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" hidden="1">
       <c r="A174" t="s">
         <v>24</v>
       </c>
@@ -4073,7 +5898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" hidden="1">
       <c r="A175" t="s">
         <v>24</v>
       </c>
@@ -4093,7 +5918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" hidden="1">
       <c r="A176" s="3" t="s">
         <v>47</v>
       </c>
@@ -4113,7 +5938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" hidden="1">
       <c r="A177" s="3" t="s">
         <v>47</v>
       </c>
@@ -4133,7 +5958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" hidden="1">
       <c r="A178" s="3" t="s">
         <v>47</v>
       </c>
@@ -4153,7 +5978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" hidden="1">
       <c r="A179" s="3" t="s">
         <v>47</v>
       </c>
@@ -4173,7 +5998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" hidden="1">
       <c r="A180" s="3" t="s">
         <v>47</v>
       </c>
@@ -4193,7 +6018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" hidden="1">
       <c r="A181" s="3" t="s">
         <v>47</v>
       </c>
@@ -4213,7 +6038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" hidden="1">
       <c r="A182" t="s">
         <v>24</v>
       </c>
@@ -4233,7 +6058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" hidden="1">
       <c r="A183" t="s">
         <v>24</v>
       </c>
@@ -4253,7 +6078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" hidden="1">
       <c r="A184" t="s">
         <v>24</v>
       </c>
@@ -4273,7 +6098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" hidden="1">
       <c r="A185" s="3" t="s">
         <v>45</v>
       </c>
@@ -4293,7 +6118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" hidden="1">
       <c r="A186" s="3" t="s">
         <v>45</v>
       </c>
@@ -4313,7 +6138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" hidden="1">
       <c r="A187" s="3" t="s">
         <v>45</v>
       </c>
@@ -4333,7 +6158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" hidden="1">
       <c r="A188" t="s">
         <v>49</v>
       </c>
@@ -4353,7 +6178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" hidden="1">
       <c r="A189" t="s">
         <v>49</v>
       </c>
@@ -4373,7 +6198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" hidden="1">
       <c r="A190" t="s">
         <v>49</v>
       </c>
@@ -4393,7 +6218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" hidden="1">
       <c r="A191" t="s">
         <v>49</v>
       </c>
@@ -4413,7 +6238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" hidden="1">
       <c r="A192" t="s">
         <v>49</v>
       </c>
@@ -4433,7 +6258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" hidden="1">
       <c r="A193" t="s">
         <v>49</v>
       </c>
@@ -4453,7 +6278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" hidden="1">
       <c r="A194" t="s">
         <v>49</v>
       </c>
@@ -4473,7 +6298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" hidden="1">
       <c r="A195" t="s">
         <v>49</v>
       </c>
@@ -4493,7 +6318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" hidden="1">
       <c r="A196" t="s">
         <v>49</v>
       </c>
@@ -4513,7 +6338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" hidden="1">
       <c r="A197" t="s">
         <v>49</v>
       </c>
@@ -4533,7 +6358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" hidden="1">
       <c r="A198" t="s">
         <v>49</v>
       </c>
@@ -4553,7 +6378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" hidden="1">
       <c r="A199" t="s">
         <v>49</v>
       </c>
@@ -4573,7 +6398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" hidden="1">
       <c r="A200" t="s">
         <v>49</v>
       </c>
@@ -4593,7 +6418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" hidden="1">
       <c r="A201" t="s">
         <v>49</v>
       </c>
@@ -4613,7 +6438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" hidden="1">
       <c r="A202" t="s">
         <v>49</v>
       </c>
@@ -5653,4 +7478,110 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CF3B3F-0661-447E-8ADA-C94CD15EFF88}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5F0073-0C29-4D01-87BE-C662EC14F646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3179DCC1-FC4C-4CFD-8667-72A5ADAA7461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="57">
   <si>
     <t>Tipo de UC</t>
   </si>
@@ -226,7 +226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,16 +252,42 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -269,12 +295,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -301,12 +338,111 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2004,7 +2140,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{031B9411-6AEB-4F4F-AB7C-2D5FFE7E8F03}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{031B9411-6AEB-4F4F-AB7C-2D5FFE7E8F03}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -2126,11 +2262,26 @@
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6A60AEFD-F1D8-4A8A-AD63-1AB0B11CC907}" name="Modelo"/>
-    <tableColumn id="6" xr3:uid="{CB97FD56-49B7-4AAA-A07A-F400219A959C}" name="Tipo de UC" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{CB97FD56-49B7-4AAA-A07A-F400219A959C}" name="Tipo de UC" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{EB252B50-1E88-4FE6-81B0-41A34DB98273}" name="Parâmetro"/>
     <tableColumn id="3" xr3:uid="{67B03443-9DA6-4A98-9E86-FFCD17B034A5}" name="Valor"/>
     <tableColumn id="4" xr3:uid="{14AFB96A-7BD0-4162-B310-A06C6B375E84}" name="Tipo de CH"/>
     <tableColumn id="5" xr3:uid="{544FBDDA-C8B5-4891-888A-03B3ED283690}" name="Ator Pedagógico"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F47531D7-A70D-4C08-B52F-8D17D3CF116A}" name="Table2" displayName="Table2" ref="A25:F28" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A25:F28" xr:uid="{F47531D7-A70D-4C08-B52F-8D17D3CF116A}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{04E4E588-3CD1-43D2-894B-0D0D0A2AC96F}" name="Modelo" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{1FCE6C3C-9368-4E8A-8CF8-0F505ADF975C}" name="Tipo de UC" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{62A081B4-1F4D-48C4-94D7-23A2BE2C30A1}" name="Ator Pedagógico"/>
+    <tableColumn id="4" xr3:uid="{6E394519-C959-4F9B-8E45-E79A7D9D7BB3}" name="CH Semanal" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{075252CF-41B8-45B5-B162-D1706B2B3AC3}" name="Máximo de Alunos por Turma" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{FF418707-977D-44AE-96A7-2A835629BB74}" name="Remuneração por Hora" dataDxfId="1" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2401,8 +2552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68:F70"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7482,19 +7633,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CF3B3F-0661-447E-8ADA-C94CD15EFF88}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="A13:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -7581,7 +7733,290 @@
         <v>3</v>
       </c>
     </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="16">
+        <v>99999</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="15">
+        <v>4</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="16">
+        <v>120</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="19">
+        <v>21</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="16">
+        <v>70</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="19">
+        <v>21</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="20">
+        <v>55.08</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="23">
+        <v>2</v>
+      </c>
+      <c r="E26" s="23">
+        <v>70</v>
+      </c>
+      <c r="F26" s="25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="23">
+        <v>3</v>
+      </c>
+      <c r="E27" s="23">
+        <v>99999</v>
+      </c>
+      <c r="F27" s="25">
+        <v>55.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="23">
+        <v>4</v>
+      </c>
+      <c r="E28" s="23">
+        <v>120</v>
+      </c>
+      <c r="F28" s="25">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3179DCC1-FC4C-4CFD-8667-72A5ADAA7461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1802BD-CEA8-470F-8BD3-DFE2C6D02C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="59">
   <si>
     <t>Tipo de UC</t>
   </si>
@@ -218,6 +218,12 @@
   <si>
     <t>Mais de 1 ator pedagógico no mesmo tipo de ch</t>
   </si>
+  <si>
+    <t>Professor Presencial</t>
+  </si>
+  <si>
+    <t>Professor Regente Síncrono</t>
+  </si>
 </sst>
 </file>
 
@@ -387,14 +393,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -439,6 +437,14 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -2248,17 +2254,18 @@
   <autoFilter ref="A1:F202" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Semi Presencial 30.20 Bacharelado"/>
+        <filter val="Presencial 70.30"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="UC (1-3)"/>
+        <filter val="UC (1-5)"/>
+        <filter val="UC (6-10)"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F187">
-    <sortCondition ref="A1:A202"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A74:F163">
+    <sortCondition ref="B1:B202"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6A60AEFD-F1D8-4A8A-AD63-1AB0B11CC907}" name="Modelo"/>
@@ -2273,15 +2280,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F47531D7-A70D-4C08-B52F-8D17D3CF116A}" name="Table2" displayName="Table2" ref="A25:F28" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F47531D7-A70D-4C08-B52F-8D17D3CF116A}" name="Table2" displayName="Table2" ref="A25:F28" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="A25:F28" xr:uid="{F47531D7-A70D-4C08-B52F-8D17D3CF116A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{04E4E588-3CD1-43D2-894B-0D0D0A2AC96F}" name="Modelo" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1FCE6C3C-9368-4E8A-8CF8-0F505ADF975C}" name="Tipo de UC" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{04E4E588-3CD1-43D2-894B-0D0D0A2AC96F}" name="Modelo" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{1FCE6C3C-9368-4E8A-8CF8-0F505ADF975C}" name="Tipo de UC" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{62A081B4-1F4D-48C4-94D7-23A2BE2C30A1}" name="Ator Pedagógico"/>
-    <tableColumn id="4" xr3:uid="{6E394519-C959-4F9B-8E45-E79A7D9D7BB3}" name="CH Semanal" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{075252CF-41B8-45B5-B162-D1706B2B3AC3}" name="Máximo de Alunos por Turma" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{FF418707-977D-44AE-96A7-2A835629BB74}" name="Remuneração por Hora" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{6E394519-C959-4F9B-8E45-E79A7D9D7BB3}" name="CH Semanal" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{075252CF-41B8-45B5-B162-D1706B2B3AC3}" name="Máximo de Alunos por Turma" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{FF418707-977D-44AE-96A7-2A835629BB74}" name="Remuneração por Hora" dataDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2552,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H203" sqref="H203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2891,50 +2898,50 @@
     </row>
     <row r="17" spans="1:6" hidden="1">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" hidden="1">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18">
-        <v>70</v>
+        <v>550</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -2943,10 +2950,10 @@
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" hidden="1">
@@ -3071,15 +3078,15 @@
     </row>
     <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>2</v>
       </c>
       <c r="E26" t="s">
@@ -3091,10 +3098,10 @@
     </row>
     <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
@@ -3111,10 +3118,10 @@
     </row>
     <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -3199,14 +3206,14 @@
       <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="D32">
-        <v>1</v>
+      <c r="D32" s="2">
+        <v>0.5</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1">
@@ -3217,10 +3224,10 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.5</v>
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>1000</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -3237,16 +3244,16 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34">
-        <v>80</v>
+        <v>17</v>
+      </c>
+      <c r="D34" s="1">
+        <v>55.08</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1">
@@ -3254,19 +3261,19 @@
         <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <v>20</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6" hidden="1">
@@ -3274,19 +3281,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
       </c>
-      <c r="D36">
-        <v>450</v>
+      <c r="D36" s="4">
+        <v>120</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6" hidden="1">
@@ -3294,7 +3301,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -3306,7 +3313,7 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6" hidden="1">
@@ -3314,19 +3321,19 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:6" hidden="1">
@@ -3334,19 +3341,19 @@
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>19</v>
       </c>
       <c r="D39">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6" hidden="1">
@@ -3354,7 +3361,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -3366,55 +3373,55 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="4">
-        <v>20</v>
+      <c r="D41">
+        <v>3</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42">
         <v>120</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
@@ -3426,10 +3433,10 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" hidden="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -3446,10 +3453,10 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -3457,19 +3464,19 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" hidden="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -3477,16 +3484,16 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46">
-        <v>120</v>
+        <v>17</v>
+      </c>
+      <c r="D46" s="1">
+        <v>55.08</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1">
@@ -3494,19 +3501,19 @@
         <v>35</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:6" hidden="1">
@@ -3514,22 +3521,22 @@
         <v>35</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="1">
-        <v>55.08</v>
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" hidden="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -3537,44 +3544,44 @@
         <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="1">
-        <v>55.08</v>
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>35</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
       </c>
       <c r="D50">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>35</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -3586,7 +3593,7 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:6" hidden="1">
@@ -3606,7 +3613,7 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:6" hidden="1">
@@ -3849,27 +3856,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" hidden="1">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="5">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -3880,16 +3887,16 @@
         <v>18</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -3900,16 +3907,16 @@
         <v>19</v>
       </c>
       <c r="D67">
-        <v>99999</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -3917,19 +3924,19 @@
         <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="D68" s="1">
+        <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -3937,10 +3944,10 @@
         <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
@@ -3949,7 +3956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" hidden="1">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -3957,10 +3964,10 @@
         <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="1">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D70">
+        <v>120</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -3969,32 +3976,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" hidden="1">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>19</v>
       </c>
       <c r="D71">
-        <v>70</v>
+        <v>550</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -4003,13 +4010,13 @@
         <v>21</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -4020,21 +4027,21 @@
         <v>17</v>
       </c>
       <c r="D73" s="1">
-        <v>55.08</v>
+        <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
@@ -4051,16 +4058,16 @@
     </row>
     <row r="75" spans="1:6" hidden="1">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="1">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>70</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -4171,16 +4178,16 @@
     </row>
     <row r="81" spans="1:6" hidden="1">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81">
-        <v>70</v>
+        <v>17</v>
+      </c>
+      <c r="D81" s="1">
+        <v>21</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -4274,19 +4281,19 @@
         <v>20</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="5">
-        <v>2</v>
+      <c r="D86">
+        <v>3</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:6" hidden="1">
@@ -4294,19 +4301,19 @@
         <v>20</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C87" t="s">
         <v>19</v>
       </c>
       <c r="D87">
-        <v>550</v>
+        <v>99999</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:6" hidden="1">
@@ -4314,19 +4321,19 @@
         <v>20</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="1">
-        <v>21</v>
+        <v>55.08</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:6" hidden="1">
@@ -4811,50 +4818,50 @@
     </row>
     <row r="113" spans="1:6" hidden="1">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C113" t="s">
         <v>18</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113">
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:6" hidden="1">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
       </c>
       <c r="D114">
-        <v>550</v>
+        <v>70</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:6" hidden="1">
       <c r="A115" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C115" t="s">
         <v>17</v>
@@ -4863,10 +4870,10 @@
         <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:6" hidden="1">
@@ -4931,50 +4938,50 @@
     </row>
     <row r="119" spans="1:6" hidden="1">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C119" t="s">
         <v>18</v>
       </c>
-      <c r="D119" s="5">
-        <v>2</v>
+      <c r="D119">
+        <v>2.5</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:6" hidden="1">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
         <v>19</v>
       </c>
       <c r="D120">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="E120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:6" hidden="1">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
         <v>17</v>
@@ -4983,10 +4990,10 @@
         <v>21</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:6" hidden="1">
@@ -5231,10 +5238,10 @@
     </row>
     <row r="134" spans="1:6" hidden="1">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C134" t="s">
         <v>18</v>
@@ -5251,16 +5258,16 @@
     </row>
     <row r="135" spans="1:6" hidden="1">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
-      </c>
-      <c r="D135">
-        <v>70</v>
+        <v>17</v>
+      </c>
+      <c r="D135" s="1">
+        <v>21</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
@@ -5271,16 +5278,16 @@
     </row>
     <row r="136" spans="1:6" hidden="1">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="1">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D136">
+        <v>70</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
@@ -5300,13 +5307,13 @@
         <v>18</v>
       </c>
       <c r="D137">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:6" hidden="1">
@@ -5320,13 +5327,13 @@
         <v>19</v>
       </c>
       <c r="D138">
-        <v>120</v>
+        <v>99999</v>
       </c>
       <c r="E138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:6" hidden="1">
@@ -5340,13 +5347,13 @@
         <v>17</v>
       </c>
       <c r="D139" s="1">
-        <v>21</v>
+        <v>55.08</v>
       </c>
       <c r="E139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F139" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:6" hidden="1">
@@ -5354,19 +5361,19 @@
         <v>24</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C140" t="s">
         <v>18</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:6" hidden="1">
@@ -5374,19 +5381,19 @@
         <v>24</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C141" t="s">
         <v>19</v>
       </c>
       <c r="D141">
-        <v>99999</v>
+        <v>70</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:6" hidden="1">
@@ -5394,67 +5401,67 @@
         <v>24</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C142" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="1">
-        <v>55.08</v>
+        <v>21</v>
       </c>
       <c r="E142" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:6" hidden="1">
       <c r="A143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C143" t="s">
         <v>18</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="5">
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:6" hidden="1">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C144" t="s">
         <v>19</v>
       </c>
       <c r="D144">
-        <v>70</v>
+        <v>550</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:6" hidden="1">
       <c r="A145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C145" t="s">
         <v>17</v>
@@ -5463,10 +5470,10 @@
         <v>21</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:6" hidden="1">
@@ -5591,50 +5598,50 @@
     </row>
     <row r="152" spans="1:6" hidden="1">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C152" t="s">
         <v>18</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:6" hidden="1">
       <c r="A153" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C153" t="s">
         <v>19</v>
       </c>
       <c r="D153">
-        <v>70</v>
+        <v>550</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:6" hidden="1">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C154" t="s">
         <v>17</v>
@@ -5643,10 +5650,10 @@
         <v>21</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:6" hidden="1">
@@ -5774,19 +5781,19 @@
         <v>24</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C161" t="s">
         <v>18</v>
       </c>
-      <c r="D161" s="5">
-        <v>2</v>
+      <c r="D161">
+        <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:6" hidden="1">
@@ -5794,19 +5801,19 @@
         <v>24</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C162" t="s">
         <v>19</v>
       </c>
       <c r="D162">
-        <v>550</v>
+        <v>70</v>
       </c>
       <c r="E162" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:6" hidden="1">
@@ -5814,7 +5821,7 @@
         <v>24</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C163" t="s">
         <v>17</v>
@@ -5823,10 +5830,10 @@
         <v>21</v>
       </c>
       <c r="E163" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:6" hidden="1">
@@ -7635,7 +7642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CF3B3F-0661-447E-8ADA-C94CD15EFF88}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F22" sqref="A13:F22"/>
     </sheetView>
   </sheetViews>

--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1802BD-CEA8-470F-8BD3-DFE2C6D02C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E670DC10-86B0-425A-9A58-3CCEE8FA04E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2146,7 +2146,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{031B9411-6AEB-4F4F-AB7C-2D5FFE7E8F03}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{031B9411-6AEB-4F4F-AB7C-2D5FFE7E8F03}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -2254,17 +2254,22 @@
   <autoFilter ref="A1:F202" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Presencial 70.30"/>
+        <filter val="Semi Presencial 30.20 Bacharelado"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="UC (1-5)"/>
-        <filter val="UC (6-10)"/>
+        <filter val="UC (1-3)"/>
+        <filter val="UC (4-8)"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="CH Semanal"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A74:F163">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A66:F134">
     <sortCondition ref="B1:B202"/>
   </sortState>
   <tableColumns count="6">
@@ -2559,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H203" sqref="H203"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3376,7 +3381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -3396,7 +3401,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -3416,7 +3421,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -3436,7 +3441,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -3456,7 +3461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -3476,7 +3481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -3536,7 +3541,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" hidden="1">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -3556,7 +3561,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -3576,7 +3581,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -3876,7 +3881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -3936,7 +3941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -4076,24 +4081,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>20</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
       </c>
       <c r="D76">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1">
@@ -4156,7 +4161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -4167,13 +4172,13 @@
         <v>18</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:6" hidden="1">
@@ -4276,12 +4281,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>20</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
@@ -5236,7 +5241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>20</v>
       </c>

--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E670DC10-86B0-425A-9A58-3CCEE8FA04E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A0888A-F71E-46DB-B556-BB2DF49C97E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2146,7 +2146,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{031B9411-6AEB-4F4F-AB7C-2D5FFE7E8F03}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{031B9411-6AEB-4F4F-AB7C-2D5FFE7E8F03}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -2252,20 +2252,15 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}" name="Table1" displayName="Table1" ref="A1:F202" totalsRowShown="0">
   <autoFilter ref="A1:F202" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}">
-    <filterColumn colId="0">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Semi Presencial 30.20 Bacharelado"/>
+        <filter val="Máximo de Alunos por Turma"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="1">
+    <filterColumn colId="5">
       <filters>
-        <filter val="UC (1-3)"/>
-        <filter val="UC (4-8)"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="CH Semanal"/>
+        <filter val="Mediador Presencial"/>
+        <filter val="Professor Presencial"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3281,7 +3276,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3341,7 +3336,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -3401,7 +3396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -3461,7 +3456,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -3881,7 +3876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -3941,7 +3936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" hidden="1">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -3961,7 +3956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -4081,7 +4076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -4141,7 +4136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -4161,7 +4156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -4281,7 +4276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -4661,7 +4656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -4961,7 +4956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -5241,7 +5236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -5501,7 +5496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -5681,7 +5676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -5941,7 +5936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1">
+    <row r="169" spans="1:6">
       <c r="A169" s="3" t="s">
         <v>45</v>
       </c>
@@ -6001,7 +5996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1">
+    <row r="172" spans="1:6">
       <c r="A172" s="3" t="s">
         <v>45</v>
       </c>

--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A0888A-F71E-46DB-B556-BB2DF49C97E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AFD1E4-47F4-4357-A2BD-7112FF3297E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2252,20 +2252,24 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}" name="Table1" displayName="Table1" ref="A1:F202" totalsRowShown="0">
   <autoFilter ref="A1:F202" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}">
-    <filterColumn colId="2">
+    <filterColumn colId="0">
       <filters>
-        <filter val="Máximo de Alunos por Turma"/>
+        <filter val="EAD 10.10"/>
+        <filter val="Semi Presencial 30.20 Bacharelado"/>
+        <filter val="Semi Presencial 30.20 Licenciatura"/>
+        <filter val="Semi Presencial 40.20 Bacharelado"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
       <filters>
+        <filter val="Mediador Assíncrono"/>
+        <filter val="Mediador Online"/>
         <filter val="Mediador Presencial"/>
-        <filter val="Professor Presencial"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A66:F134">
-    <sortCondition ref="B1:B202"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F163">
+    <sortCondition ref="A1:A202"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6A60AEFD-F1D8-4A8A-AD63-1AB0B11CC907}" name="Modelo"/>
@@ -2560,7 +2564,7 @@
   <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="F17" sqref="A17:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2616,7 +2620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2676,7 +2680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2736,7 +2740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2896,52 +2900,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18">
-        <v>550</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -2950,10 +2954,10 @@
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" hidden="1">
@@ -3076,17 +3080,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
@@ -3096,12 +3100,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
@@ -3116,12 +3120,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -3276,7 +3280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3336,7 +3340,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -3396,7 +3400,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -3456,7 +3460,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -3856,9 +3860,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>7</v>
@@ -3876,47 +3880,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>20</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>550</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>20</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67">
-        <v>70</v>
+        <v>17</v>
+      </c>
+      <c r="D67" s="1">
+        <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -3924,10 +3928,10 @@
         <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="1">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -3936,7 +3940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -3944,16 +3948,16 @@
         <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3964,59 +3968,59 @@
         <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70">
+        <v>17</v>
+      </c>
+      <c r="D70" s="1">
+        <v>21</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72">
         <v>120</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E72" t="s">
         <v>9</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F72" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1">
-      <c r="A71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71">
-        <v>550</v>
-      </c>
-      <c r="E71" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" hidden="1">
-      <c r="A72" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="1">
-        <v>21</v>
-      </c>
-      <c r="E72" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -4036,44 +4040,44 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="D74" s="1">
+        <v>21</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
       </c>
       <c r="D75">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1">
@@ -4096,7 +4100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -4104,10 +4108,10 @@
         <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="1">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D77">
+        <v>2.5</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
@@ -4144,19 +4148,19 @@
         <v>29</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -4164,30 +4168,30 @@
         <v>29</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80">
-        <v>2.5</v>
+        <v>17</v>
+      </c>
+      <c r="D80" s="1">
+        <v>21</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="1">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>70</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -4636,24 +4640,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>23</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>18</v>
       </c>
-      <c r="D104">
-        <v>4</v>
+      <c r="D104" s="5">
+        <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4661,27 +4665,27 @@
         <v>23</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>19</v>
       </c>
       <c r="D105">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="E105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>23</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>17</v>
@@ -4690,10 +4694,10 @@
         <v>21</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:6" hidden="1">
@@ -4816,52 +4820,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C113" t="s">
         <v>18</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
       </c>
       <c r="D114">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C115" t="s">
         <v>17</v>
@@ -4870,10 +4874,10 @@
         <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:6" hidden="1">
@@ -4936,52 +4940,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C119" t="s">
         <v>18</v>
       </c>
-      <c r="D119">
-        <v>2.5</v>
+      <c r="D119" s="5">
+        <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C120" t="s">
         <v>19</v>
       </c>
       <c r="D120">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="E120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C121" t="s">
         <v>17</v>
@@ -4990,10 +4994,10 @@
         <v>21</v>
       </c>
       <c r="E121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:6" hidden="1">
@@ -5236,64 +5240,64 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>18</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="5">
         <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="1">
+        <v>19</v>
+      </c>
+      <c r="D135">
+        <v>550</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="1">
         <v>21</v>
       </c>
-      <c r="E135" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" hidden="1">
-      <c r="A136" t="s">
-        <v>20</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C136" t="s">
-        <v>19</v>
-      </c>
-      <c r="D136">
-        <v>70</v>
-      </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:6" hidden="1">
@@ -5356,12 +5360,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>24</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C140" t="s">
         <v>18</v>
@@ -5376,12 +5380,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>24</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C141" t="s">
         <v>19</v>
@@ -5396,12 +5400,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>24</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C142" t="s">
         <v>17</v>
@@ -5416,52 +5420,52 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C143" t="s">
         <v>18</v>
       </c>
-      <c r="D143" s="5">
-        <v>2</v>
+      <c r="D143">
+        <v>2.5</v>
       </c>
       <c r="E143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C144" t="s">
         <v>19</v>
       </c>
       <c r="D144">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="E144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C145" t="s">
         <v>17</v>
@@ -5470,13 +5474,13 @@
         <v>21</v>
       </c>
       <c r="E145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -5487,13 +5491,13 @@
         <v>18</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5507,16 +5511,16 @@
         <v>19</v>
       </c>
       <c r="D147">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E147" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -5530,10 +5534,10 @@
         <v>21</v>
       </c>
       <c r="E148" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:6" hidden="1">
@@ -5596,52 +5600,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C152" t="s">
         <v>18</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C153" t="s">
         <v>19</v>
       </c>
       <c r="D153">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="E153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C154" t="s">
         <v>17</v>
@@ -5650,13 +5654,13 @@
         <v>21</v>
       </c>
       <c r="E154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -5776,7 +5780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>24</v>
       </c>
@@ -5796,7 +5800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>24</v>
       </c>
@@ -5816,7 +5820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>24</v>
       </c>
@@ -5936,7 +5940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" hidden="1">
       <c r="A169" s="3" t="s">
         <v>45</v>
       </c>
@@ -5996,7 +6000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" hidden="1">
       <c r="A172" s="3" t="s">
         <v>45</v>
       </c>

--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AFD1E4-47F4-4357-A2BD-7112FF3297E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87BF2B6-6753-45A9-BF37-BE60DBC8F150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2254,21 +2254,35 @@
   <autoFilter ref="A1:F202" xr:uid="{8EEE6562-8047-4AB2-AF29-4AA274593DC1}">
     <filterColumn colId="0">
       <filters>
-        <filter val="EAD 10.10"/>
         <filter val="Semi Presencial 30.20 Bacharelado"/>
-        <filter val="Semi Presencial 30.20 Licenciatura"/>
-        <filter val="Semi Presencial 40.20 Bacharelado"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="UC (10)"/>
+        <filter val="UC (1-3)"/>
+        <filter val="UC (1-5)"/>
+        <filter val="UC (1-6)"/>
+        <filter val="UC (4-8)"/>
+        <filter val="UC (6-10)"/>
+        <filter val="UC (6-8)"/>
+        <filter val="UC (7-8)"/>
+        <filter val="UC (7-9)"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="CH Semanal"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="Mediador Assíncrono"/>
         <filter val="Mediador Online"/>
         <filter val="Mediador Presencial"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F163">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:F161">
     <sortCondition ref="A1:A202"/>
   </sortState>
   <tableColumns count="6">
@@ -2564,7 +2578,7 @@
   <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F17" sqref="A17:F19"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2620,7 +2634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2680,7 +2694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2740,7 +2754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2900,7 +2914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2920,7 +2934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2940,7 +2954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3080,7 +3094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -3100,7 +3114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -3120,7 +3134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3860,7 +3874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" hidden="1">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -3880,7 +3894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -3900,7 +3914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -3940,7 +3954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" hidden="1">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -3960,7 +3974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" hidden="1">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -4000,7 +4014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" hidden="1">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -4020,7 +4034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -4040,7 +4054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" hidden="1">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -4060,7 +4074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" hidden="1">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -4160,7 +4174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -4180,7 +4194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -4640,7 +4654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" hidden="1">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -4660,7 +4674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" hidden="1">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -4680,7 +4694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" hidden="1">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -4820,7 +4834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" hidden="1">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -4840,7 +4854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -4860,7 +4874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115" t="s">
         <v>23</v>
       </c>
@@ -4940,7 +4954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" t="s">
         <v>23</v>
       </c>
@@ -4960,7 +4974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -4980,7 +4994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -5240,7 +5254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -5260,7 +5274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" hidden="1">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -5280,7 +5294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" hidden="1">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -5360,7 +5374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" hidden="1">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -5380,7 +5394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" hidden="1">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -5400,7 +5414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" hidden="1">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -5420,7 +5434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" hidden="1">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -5440,7 +5454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" hidden="1">
       <c r="A144" t="s">
         <v>24</v>
       </c>
@@ -5460,7 +5474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -5480,7 +5494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -5500,7 +5514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -5520,7 +5534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" hidden="1">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -5600,7 +5614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" hidden="1">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -5620,7 +5634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" hidden="1">
       <c r="A153" t="s">
         <v>24</v>
       </c>
@@ -5640,7 +5654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" hidden="1">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -5660,7 +5674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" hidden="1">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -5680,7 +5694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" hidden="1">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -5700,7 +5714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" hidden="1">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -5780,7 +5794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" hidden="1">
       <c r="A161" t="s">
         <v>24</v>
       </c>
@@ -5800,7 +5814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" hidden="1">
       <c r="A162" t="s">
         <v>24</v>
       </c>
@@ -5820,7 +5834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" hidden="1">
       <c r="A163" t="s">
         <v>24</v>
       </c>

--- a/databases/parametros_turma.xlsx
+++ b/databases/parametros_turma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87BF2B6-6753-45A9-BF37-BE60DBC8F150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F4B75E-270D-4438-8A8D-98D185E0DA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2272,13 +2272,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="CH Semanal"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Mediador Online"/>
-        <filter val="Mediador Presencial"/>
+        <filter val="Máximo de Alunos por Turma"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2578,7 +2572,7 @@
   <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3934,7 +3928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -3954,7 +3948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -3994,7 +3988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" hidden="1">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -4014,7 +4008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -4074,7 +4068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -4114,7 +4108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" hidden="1">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -4134,7 +4128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -4154,7 +4148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -4194,7 +4188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -4314,7 +4308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>20</v>
       </c>
